--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业主营业务税金及附加.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业主营业务税金及附加.xlsx
@@ -1819,7 +1819,7 @@
         <v>7.98</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.3799999999999999</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="AG3" t="n">
         <v>0.67</v>
@@ -1837,7 +1837,7 @@
         <v>13.56</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
       <c r="AM3" t="n">
         <v>0.72</v>
@@ -1873,7 +1873,7 @@
         <v>14.71</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.57</v>
+        <v>0.6099999999999999</v>
       </c>
       <c r="AY3" t="n">
         <v>3.13</v>
@@ -1954,7 +1954,7 @@
         <v>30.28</v>
       </c>
       <c r="BY3" t="n">
-        <v>2.53</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="BZ3" t="n">
         <v>6.15</v>
@@ -1999,7 +1999,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.72</v>
+        <v>0.06</v>
       </c>
       <c r="CO3" t="n">
         <v>1.49</v>
@@ -2071,7 +2071,7 @@
         <v>0.27</v>
       </c>
       <c r="DL3" t="n">
-        <v>4.789999999999999</v>
+        <v>1.209999999999999</v>
       </c>
       <c r="DM3" t="n">
         <v>13.32</v>
@@ -2243,7 +2243,7 @@
         <v>11.97</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3799999999999999</v>
+        <v>0.08999999999999991</v>
       </c>
       <c r="L4" t="n">
         <v>2.16</v>
@@ -2261,7 +2261,7 @@
         <v>15.39</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.829999999999998</v>
+        <v>0.3399999999999979</v>
       </c>
       <c r="R4" t="n">
         <v>13.95</v>
@@ -2297,7 +2297,7 @@
         <v>14.53</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.4099999999999999</v>
+        <v>0.1699999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>2.15</v>
@@ -2324,7 +2324,7 @@
         <v>13.23</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.14</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="AM4" t="n">
         <v>0.66</v>
@@ -2333,7 +2333,7 @@
         <v>11.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9400000000000004</v>
+        <v>0.07000000000000162</v>
       </c>
       <c r="AP4" t="n">
         <v>5.05</v>
@@ -2369,7 +2369,7 @@
         <v>20.86</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.1900000000000002</v>
+        <v>3.05311331771918e-16</v>
       </c>
       <c r="BB4" t="n">
         <v>1.34</v>
@@ -2423,7 +2423,7 @@
         <v>20.57</v>
       </c>
       <c r="BS4" t="n">
-        <v>2.860000000000001</v>
+        <v>1.320000000000002</v>
       </c>
       <c r="BT4" t="n">
         <v>15.49</v>
@@ -2441,7 +2441,7 @@
         <v>3.93</v>
       </c>
       <c r="BY4" t="n">
-        <v>1.26</v>
+        <v>0.3700000000000001</v>
       </c>
       <c r="BZ4" t="n">
         <v>4.51</v>
@@ -2468,7 +2468,7 @@
         <v>13.84</v>
       </c>
       <c r="CH4" t="n">
-        <v>7.239999999999998</v>
+        <v>0.2199999999999931</v>
       </c>
       <c r="CI4" t="n">
         <v>27.53</v>
@@ -2486,7 +2486,7 @@
         <v>6.56</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="CO4" t="n">
         <v>1.1</v>
@@ -2495,7 +2495,7 @@
         <v>4.98</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.5100000000000002</v>
+        <v>0.0600000000000005</v>
       </c>
       <c r="CR4" t="n">
         <v>2.35</v>
@@ -2504,7 +2504,7 @@
         <v>5.49</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="CU4" t="n">
         <v>3.71</v>
@@ -2513,7 +2513,7 @@
         <v>18.16</v>
       </c>
       <c r="CW4" t="n">
-        <v>1.54</v>
+        <v>0.2400000000000011</v>
       </c>
       <c r="CX4" t="n">
         <v>8.119999999999999</v>
@@ -2522,7 +2522,7 @@
         <v>1.43</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.009999999999999561</v>
       </c>
       <c r="DA4" t="n">
         <v>2.14</v>
@@ -2531,7 +2531,7 @@
         <v>10.8</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.1999999999999998</v>
       </c>
       <c r="DD4" t="n">
         <v>1.76</v>
@@ -2540,7 +2540,7 @@
         <v>-1.39</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.8499999999999999</v>
+        <v>0.2699999999999999</v>
       </c>
       <c r="DG4" t="n">
         <v>4.46</v>
@@ -2558,7 +2558,7 @@
         <v>4.26</v>
       </c>
       <c r="DL4" t="n">
-        <v>2.850000000000001</v>
+        <v>0.4300000000000028</v>
       </c>
       <c r="DM4" t="n">
         <v>10.21</v>
@@ -2712,7 +2712,7 @@
         <v>10.91</v>
       </c>
       <c r="E5" t="n">
-        <v>7.440000000000005</v>
+        <v>0.5700000000000078</v>
       </c>
       <c r="F5" t="n">
         <v>39.85</v>
@@ -2730,7 +2730,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6200000000000001</v>
+        <v>0.06000000000000039</v>
       </c>
       <c r="L5" t="n">
         <v>2.74</v>
@@ -2748,7 +2748,7 @@
         <v>-1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.000000000000002</v>
+        <v>0.6600000000000041</v>
       </c>
       <c r="R5" t="n">
         <v>17.73</v>
@@ -2820,7 +2820,7 @@
         <v>13.64</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.2499999999999985</v>
       </c>
       <c r="AP5" t="n">
         <v>6.16</v>
@@ -2829,7 +2829,7 @@
         <v>14.71</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.1600000000000001</v>
+        <v>3.885780586188048e-16</v>
       </c>
       <c r="AS5" t="n">
         <v>3.69</v>
@@ -2838,7 +2838,7 @@
         <v>6.46</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.28</v>
+        <v>0.1200000000000004</v>
       </c>
       <c r="AV5" t="n">
         <v>1.34</v>
@@ -2856,7 +2856,7 @@
         <v>18.75</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.1699999999999997</v>
+        <v>0.1699999999999988</v>
       </c>
       <c r="BB5" t="n">
         <v>1.76</v>
@@ -2874,7 +2874,7 @@
         <v>2.66</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.79</v>
+        <v>0.07999999999999985</v>
       </c>
       <c r="BH5" t="n">
         <v>5.59</v>
@@ -2910,7 +2910,7 @@
         <v>24.24</v>
       </c>
       <c r="BS5" t="n">
-        <v>3.870000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="BT5" t="n">
         <v>19.87</v>
@@ -2937,7 +2937,7 @@
         <v>9.51</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.06999999999999992</v>
       </c>
       <c r="CC5" t="n">
         <v>1.8</v>
@@ -2946,7 +2946,7 @@
         <v>21.23</v>
       </c>
       <c r="CE5" t="n">
-        <v>1.929999999999991</v>
+        <v>0.529999999999982</v>
       </c>
       <c r="CF5" t="n">
         <v>78.64</v>
@@ -2955,7 +2955,7 @@
         <v>17.06</v>
       </c>
       <c r="CH5" t="n">
-        <v>1.250000000000004</v>
+        <v>1.030000000000011</v>
       </c>
       <c r="CI5" t="n">
         <v>35.7</v>
@@ -2973,7 +2973,7 @@
         <v>6.16</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.3199999999999998</v>
+        <v>0.05999999999999966</v>
       </c>
       <c r="CO5" t="n">
         <v>1.42</v>
@@ -3000,7 +3000,7 @@
         <v>17.48</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.6400000000000001</v>
+        <v>0.1599999999999979</v>
       </c>
       <c r="CX5" t="n">
         <v>10.41</v>
@@ -3009,7 +3009,7 @@
         <v>2.05</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.02000000000000013</v>
       </c>
       <c r="DA5" t="n">
         <v>2.74</v>
@@ -3018,7 +3018,7 @@
         <v>7.11</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.2600000000000002</v>
+        <v>0.01000000000000037</v>
       </c>
       <c r="DD5" t="n">
         <v>2.16</v>
@@ -3036,7 +3036,7 @@
         <v>12.16</v>
       </c>
       <c r="DI5" t="n">
-        <v>1.619999999999997</v>
+        <v>0.05999999999999472</v>
       </c>
       <c r="DJ5" t="n">
         <v>44.3</v>
@@ -3054,7 +3054,7 @@
         <v>15.87</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.02000000000000085</v>
       </c>
       <c r="DP5" t="n">
         <v>1.48</v>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6399999999999997</v>
+        <v>0.01999999999999952</v>
       </c>
       <c r="C6" t="n">
         <v>4.8</v>
@@ -3199,7 +3199,7 @@
         <v>9.49</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6599999999999895</v>
+        <v>0.08999999999998165</v>
       </c>
       <c r="F6" t="n">
         <v>48.47</v>
@@ -3208,7 +3208,7 @@
         <v>20.15</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="I6" t="n">
         <v>1.19</v>
@@ -3226,7 +3226,7 @@
         <v>4.86</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02</v>
+        <v>1.734723475976807e-18</v>
       </c>
       <c r="O6" t="n">
         <v>0.03</v>
@@ -3235,7 +3235,7 @@
         <v>1.01</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.93</v>
+        <v>0.9299999999999939</v>
       </c>
       <c r="R6" t="n">
         <v>21.6</v>
@@ -3244,7 +3244,7 @@
         <v>-7.6</v>
       </c>
       <c r="T6" t="n">
-        <v>0.79</v>
+        <v>0.589999999999999</v>
       </c>
       <c r="U6" t="n">
         <v>4.46</v>
@@ -3253,7 +3253,7 @@
         <v>-1.18</v>
       </c>
       <c r="W6" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.54</v>
       </c>
       <c r="X6" t="n">
         <v>5.64</v>
@@ -3271,7 +3271,7 @@
         <v>10.87</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5999999999999996</v>
+        <v>0.5199999999999996</v>
       </c>
       <c r="AD6" t="n">
         <v>3.58</v>
@@ -3280,7 +3280,7 @@
         <v>4.72</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="AG6" t="n">
         <v>1.03</v>
@@ -3289,7 +3289,7 @@
         <v>4.56</v>
       </c>
       <c r="AI6" t="n">
-        <v>115.5</v>
+        <v>75.86000000000001</v>
       </c>
       <c r="AJ6" t="n">
         <v>743.54</v>
@@ -3298,7 +3298,7 @@
         <v>9</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.0500000000000001</v>
+        <v>0.01000000000000012</v>
       </c>
       <c r="AM6" t="n">
         <v>0.99</v>
@@ -3307,7 +3307,7 @@
         <v>10.62</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.32</v>
+        <v>0.0399999999999997</v>
       </c>
       <c r="AP6" t="n">
         <v>7.79</v>
@@ -3316,7 +3316,7 @@
         <v>12.66</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.5399999999999987</v>
       </c>
       <c r="AS6" t="n">
         <v>4.69</v>
@@ -3334,7 +3334,7 @@
         <v>13.16</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.5699999999999998</v>
+        <v>0.08999999999999939</v>
       </c>
       <c r="AY6" t="n">
         <v>4.47</v>
@@ -3343,7 +3343,7 @@
         <v>17.18</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.1600000000000004</v>
       </c>
       <c r="BB6" t="n">
         <v>2.37</v>
@@ -3352,7 +3352,7 @@
         <v>24.23</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.2800000000000002</v>
+        <v>0.1599999999999991</v>
       </c>
       <c r="BE6" t="n">
         <v>3.06</v>
@@ -3361,7 +3361,7 @@
         <v>-2.83</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.41</v>
+        <v>0.11</v>
       </c>
       <c r="BH6" t="n">
         <v>6.82</v>
@@ -3370,7 +3370,7 @@
         <v>-25.61</v>
       </c>
       <c r="BJ6" t="n">
-        <v>43.78999999999996</v>
+        <v>36.54999999999984</v>
       </c>
       <c r="BK6" t="n">
         <v>306.39</v>
@@ -3388,7 +3388,7 @@
         <v>45.63</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.49</v>
+        <v>1.170000000000008</v>
       </c>
       <c r="BQ6" t="n">
         <v>10.08</v>
@@ -3415,7 +3415,7 @@
         <v>8.869999999999999</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.2599999999999989</v>
+        <v>0.1299999999999979</v>
       </c>
       <c r="BZ6" t="n">
         <v>8.35</v>
@@ -3424,7 +3424,7 @@
         <v>22.42</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.3899999999999999</v>
+        <v>0.04000000000000027</v>
       </c>
       <c r="CC6" t="n">
         <v>2.24</v>
@@ -3433,7 +3433,7 @@
         <v>16.28</v>
       </c>
       <c r="CE6" t="n">
-        <v>13.77</v>
+        <v>10.25000000000007</v>
       </c>
       <c r="CF6" t="n">
         <v>93.61</v>
@@ -3442,7 +3442,7 @@
         <v>13.56</v>
       </c>
       <c r="CH6" t="n">
-        <v>7.43</v>
+        <v>2.429999999999985</v>
       </c>
       <c r="CI6" t="n">
         <v>43.81</v>
@@ -3451,7 +3451,7 @@
         <v>5.45</v>
       </c>
       <c r="CK6" t="n">
-        <v>1.710000000000001</v>
+        <v>0.910000000000001</v>
       </c>
       <c r="CL6" t="n">
         <v>10.21</v>
@@ -3469,7 +3469,7 @@
         <v>2.35</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.5900000000000003</v>
+        <v>0.510000000000002</v>
       </c>
       <c r="CR6" t="n">
         <v>3.93</v>
@@ -3478,7 +3478,7 @@
         <v>10.01</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.1199999999999992</v>
       </c>
       <c r="CU6" t="n">
         <v>5.76</v>
@@ -3487,7 +3487,7 @@
         <v>9.970000000000001</v>
       </c>
       <c r="CW6" t="n">
-        <v>2.430000000000001</v>
+        <v>0.1100000000000019</v>
       </c>
       <c r="CX6" t="n">
         <v>13.36</v>
@@ -3496,7 +3496,7 @@
         <v>2.58</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.3100000000000008</v>
       </c>
       <c r="DA6" t="n">
         <v>3.48</v>
@@ -3505,7 +3505,7 @@
         <v>4.45</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.3599999999999999</v>
+        <v>0.0999999999999997</v>
       </c>
       <c r="DD6" t="n">
         <v>2.71</v>
@@ -3514,7 +3514,7 @@
         <v>-4.76</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.9800000000000004</v>
+        <v>0.1399999999999997</v>
       </c>
       <c r="DG6" t="n">
         <v>7</v>
@@ -3523,7 +3523,7 @@
         <v>10.51</v>
       </c>
       <c r="DI6" t="n">
-        <v>9.82</v>
+        <v>7.240000000000019</v>
       </c>
       <c r="DJ6" t="n">
         <v>54.46</v>
@@ -3532,7 +3532,7 @@
         <v>5.51</v>
       </c>
       <c r="DL6" t="n">
-        <v>2.460000000000001</v>
+        <v>2.020000000000009</v>
       </c>
       <c r="DM6" t="n">
         <v>15.99</v>
@@ -3541,7 +3541,7 @@
         <v>12.81</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.3500000000000003</v>
+        <v>0.08999999999999846</v>
       </c>
       <c r="DP6" t="n">
         <v>1.95</v>
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07000000000000117</v>
+        <v>0.03000000000000213</v>
       </c>
       <c r="C7" t="n">
         <v>5.49</v>
@@ -3695,7 +3695,7 @@
         <v>19.71</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06000000000000028</v>
+        <v>2.185751579730777e-16</v>
       </c>
       <c r="I7" t="n">
         <v>1.39</v>
@@ -3704,7 +3704,7 @@
         <v>1.08</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4899999999999998</v>
+        <v>0.2900000000000006</v>
       </c>
       <c r="L7" t="n">
         <v>3.97</v>
@@ -3713,7 +3713,7 @@
         <v>1.71</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="O7" t="n">
         <v>0.03</v>
@@ -3731,7 +3731,7 @@
         <v>-7.6</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7800000000000002</v>
+        <v>0.04000000000000048</v>
       </c>
       <c r="U7" t="n">
         <v>5.25</v>
@@ -3749,7 +3749,7 @@
         <v>15.78</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.26</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="AA7" t="n">
         <v>1.9</v>
@@ -3767,7 +3767,7 @@
         <v>1.15</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.1400000000000001</v>
+        <v>0.0200000000000001</v>
       </c>
       <c r="AG7" t="n">
         <v>1.32</v>
@@ -3785,7 +3785,7 @@
         <v>8.67</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.00999999999999945</v>
       </c>
       <c r="AM7" t="n">
         <v>1.15</v>
@@ -3794,7 +3794,7 @@
         <v>4.93</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.19</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="AP7" t="n">
         <v>9.300000000000001</v>
@@ -3803,7 +3803,7 @@
         <v>12.87</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.6200000000000001</v>
+        <v>0.08000000000000007</v>
       </c>
       <c r="AS7" t="n">
         <v>5.3</v>
@@ -3812,7 +3812,7 @@
         <v>4.34</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.03999999999999981</v>
+        <v>0.009999999999999728</v>
       </c>
       <c r="AV7" t="n">
         <v>1.97</v>
@@ -3830,7 +3830,7 @@
         <v>17.44</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.27</v>
+        <v>0.1099999999999996</v>
       </c>
       <c r="BB7" t="n">
         <v>2.68</v>
@@ -3848,7 +3848,7 @@
         <v>-4.47</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.1400000000000002</v>
       </c>
       <c r="BH7" t="n">
         <v>7.68</v>
@@ -3884,7 +3884,7 @@
         <v>15.86</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.350000000000005</v>
+        <v>0.03000000000001182</v>
       </c>
       <c r="BT7" t="n">
         <v>28.97</v>
@@ -3893,7 +3893,7 @@
         <v>10.4</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.6600000000000001</v>
+        <v>0.1400000000000006</v>
       </c>
       <c r="BW7" t="n">
         <v>6.88</v>
@@ -3902,7 +3902,7 @@
         <v>12.38</v>
       </c>
       <c r="BY7" t="n">
-        <v>1.229999999999999</v>
+        <v>0.5800000000000065</v>
       </c>
       <c r="BZ7" t="n">
         <v>9.52</v>
@@ -3911,7 +3911,7 @@
         <v>12.43</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.3600000000000003</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="CC7" t="n">
         <v>2.6</v>
@@ -3947,7 +3947,7 @@
         <v>4.67</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.2299999999999997</v>
       </c>
       <c r="CO7" t="n">
         <v>2.03</v>
@@ -3965,7 +3965,7 @@
         <v>2.96</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.75</v>
+        <v>0.03000000000000025</v>
       </c>
       <c r="CU7" t="n">
         <v>6.88</v>
@@ -3974,7 +3974,7 @@
         <v>11.7</v>
       </c>
       <c r="CW7" t="n">
-        <v>2.189999999999998</v>
+        <v>0.3999999999999972</v>
       </c>
       <c r="CX7" t="n">
         <v>15.71</v>
@@ -3992,7 +3992,7 @@
         <v>3.04</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.1100000000000003</v>
+        <v>0.01000000000000061</v>
       </c>
       <c r="DD7" t="n">
         <v>3.31</v>
@@ -4001,7 +4001,7 @@
         <v>3.08</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.8200000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="DG7" t="n">
         <v>8</v>
@@ -4010,7 +4010,7 @@
         <v>9.27</v>
       </c>
       <c r="DI7" t="n">
-        <v>9.670000000000002</v>
+        <v>1.469999999999999</v>
       </c>
       <c r="DJ7" t="n">
         <v>64.77</v>
@@ -4028,7 +4028,7 @@
         <v>13.08</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.3299999999999996</v>
+        <v>0.08999999999999941</v>
       </c>
       <c r="DP7" t="n">
         <v>2.33</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2199999999999989</v>
+        <v>0.009999999999995346</v>
       </c>
       <c r="C8" t="n">
         <v>6.24</v>
@@ -4173,7 +4173,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4299999999999926</v>
+        <v>0.08999999999997499</v>
       </c>
       <c r="F8" t="n">
         <v>66.78</v>
@@ -4182,7 +4182,7 @@
         <v>17.75</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1699999999999997</v>
+        <v>0.009999999999998864</v>
       </c>
       <c r="I8" t="n">
         <v>1.6</v>
@@ -4200,7 +4200,7 @@
         <v>2.05</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01</v>
+        <v>1.734723475976807e-18</v>
       </c>
       <c r="O8" t="n">
         <v>0.04</v>
@@ -4209,7 +4209,7 @@
         <v>24.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.050000000000001</v>
+        <v>0.2499999999999976</v>
       </c>
       <c r="R8" t="n">
         <v>28.38</v>
@@ -4236,7 +4236,7 @@
         <v>16.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.24</v>
+        <v>0.03999999999999998</v>
       </c>
       <c r="AA8" t="n">
         <v>2.22</v>
@@ -4245,7 +4245,7 @@
         <v>12.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.4599999999999956</v>
       </c>
       <c r="AD8" t="n">
         <v>4.85</v>
@@ -4263,7 +4263,7 @@
         <v>-0.38</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.269999999999911</v>
+        <v>3.909999999999911</v>
       </c>
       <c r="AJ8" t="n">
         <v>996.38</v>
@@ -4272,7 +4272,7 @@
         <v>8.48</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0400000000000002</v>
+        <v>0.01000000000000051</v>
       </c>
       <c r="AM8" t="n">
         <v>1.36</v>
@@ -4281,7 +4281,7 @@
         <v>12.51</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.16</v>
+        <v>0.78</v>
       </c>
       <c r="AP8" t="n">
         <v>10.39</v>
@@ -4290,7 +4290,7 @@
         <v>10.19</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.1399999999999997</v>
+        <v>0.05999999999999964</v>
       </c>
       <c r="AS8" t="n">
         <v>5.97</v>
@@ -4299,7 +4299,7 @@
         <v>4.87</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.2400000000000002</v>
+        <v>0.1700000000000013</v>
       </c>
       <c r="AV8" t="n">
         <v>2.26</v>
@@ -4308,7 +4308,7 @@
         <v>5.05</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.6499999999999995</v>
+        <v>0.009999999999997122</v>
       </c>
       <c r="AY8" t="n">
         <v>6.06</v>
@@ -4335,7 +4335,7 @@
         <v>-6.53</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.5799999999999998</v>
+        <v>0.1099999999999995</v>
       </c>
       <c r="BH8" t="n">
         <v>8.98</v>
@@ -4344,7 +4344,7 @@
         <v>-27.14</v>
       </c>
       <c r="BJ8" t="n">
-        <v>6.14000000000005</v>
+        <v>1.079999999999976</v>
       </c>
       <c r="BK8" t="n">
         <v>410.13</v>
@@ -4353,7 +4353,7 @@
         <v>10.76</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="BN8" t="n">
         <v>0.64</v>
@@ -4362,7 +4362,7 @@
         <v>32.35</v>
       </c>
       <c r="BP8" t="n">
-        <v>1.5</v>
+        <v>0.9399999999999959</v>
       </c>
       <c r="BQ8" t="n">
         <v>13.16</v>
@@ -4371,7 +4371,7 @@
         <v>12.88</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.5899999999999999</v>
+        <v>0.01999999999997468</v>
       </c>
       <c r="BT8" t="n">
         <v>32.92</v>
@@ -4380,7 +4380,7 @@
         <v>7.48</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.5699999999999994</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="BW8" t="n">
         <v>8.24</v>
@@ -4407,7 +4407,7 @@
         <v>13.01</v>
       </c>
       <c r="CE8" t="n">
-        <v>15.33</v>
+        <v>5.170000000000002</v>
       </c>
       <c r="CF8" t="n">
         <v>125.51</v>
@@ -4416,7 +4416,7 @@
         <v>11.56</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.1299999999999955</v>
+        <v>0.009999999999990957</v>
       </c>
       <c r="CI8" t="n">
         <v>54.12</v>
@@ -4425,7 +4425,7 @@
         <v>-4.09</v>
       </c>
       <c r="CK8" t="n">
-        <v>2.01</v>
+        <v>0.8100000000000043</v>
       </c>
       <c r="CL8" t="n">
         <v>13.74</v>
@@ -4443,7 +4443,7 @@
         <v>-2.44</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.1300000000000008</v>
+        <v>0.0500000000000043</v>
       </c>
       <c r="CR8" t="n">
         <v>5.04</v>
@@ -4452,7 +4452,7 @@
         <v>5.68</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.21</v>
+        <v>0.1499999999999994</v>
       </c>
       <c r="CU8" t="n">
         <v>7.77</v>
@@ -4470,7 +4470,7 @@
         <v>11.82</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.08000000000000052</v>
+        <v>0.04000000000000136</v>
       </c>
       <c r="DA8" t="n">
         <v>4.71</v>
@@ -4479,7 +4479,7 @@
         <v>3.77</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.05999999999999798</v>
       </c>
       <c r="DD8" t="n">
         <v>3.86</v>
@@ -4488,7 +4488,7 @@
         <v>4.69</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.2399999999999987</v>
+        <v>0.1399999999999985</v>
       </c>
       <c r="DG8" t="n">
         <v>9.470000000000001</v>
@@ -4497,7 +4497,7 @@
         <v>16.37</v>
       </c>
       <c r="DI8" t="n">
-        <v>9.409999999999997</v>
+        <v>6.469999999999999</v>
       </c>
       <c r="DJ8" t="n">
         <v>75.33</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8499999999999996</v>
+        <v>0.3900000000000112</v>
       </c>
       <c r="C9" t="n">
         <v>7.14</v>
@@ -4660,7 +4660,7 @@
         <v>7.21</v>
       </c>
       <c r="E9" t="n">
-        <v>7.109999999999999</v>
+        <v>6.240000000000073</v>
       </c>
       <c r="F9" t="n">
         <v>76.54000000000001</v>
@@ -4669,7 +4669,7 @@
         <v>17.02</v>
       </c>
       <c r="H9" t="n">
-        <v>0.28</v>
+        <v>9.020562075079397e-16</v>
       </c>
       <c r="I9" t="n">
         <v>2.07</v>
@@ -4678,7 +4678,7 @@
         <v>4.88</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1599999999999993</v>
+        <v>0.07999999999999589</v>
       </c>
       <c r="L9" t="n">
         <v>5.06</v>
@@ -4687,7 +4687,7 @@
         <v>3.36</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01</v>
+        <v>0.009999999999999997</v>
       </c>
       <c r="O9" t="n">
         <v>0.04</v>
@@ -4696,7 +4696,7 @@
         <v>4.81</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.399999999999999</v>
+        <v>2.200000000000002</v>
       </c>
       <c r="R9" t="n">
         <v>32.73</v>
@@ -4714,7 +4714,7 @@
         <v>-1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1099999999999994</v>
+        <v>0.0699999999999967</v>
       </c>
       <c r="X9" t="n">
         <v>7.99</v>
@@ -4723,7 +4723,7 @@
         <v>16.34</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.09999999999999992</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="AA9" t="n">
         <v>2.44</v>
@@ -4741,7 +4741,7 @@
         <v>1.87</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.09000000000000011</v>
+        <v>6.973588373426765e-16</v>
       </c>
       <c r="AG9" t="n">
         <v>1.52</v>
@@ -4750,7 +4750,7 @@
         <v>0.67</v>
       </c>
       <c r="AI9" t="n">
-        <v>126.4100000000001</v>
+        <v>105.4100000000005</v>
       </c>
       <c r="AJ9" t="n">
         <v>1133.28</v>
@@ -4759,7 +4759,7 @@
         <v>8.07</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.4399999999999997</v>
+        <v>0.3099999999999986</v>
       </c>
       <c r="AM9" t="n">
         <v>1.51</v>
@@ -4777,7 +4777,7 @@
         <v>7.61</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.7400000000000002</v>
+        <v>0.2600000000000016</v>
       </c>
       <c r="AS9" t="n">
         <v>6.5</v>
@@ -4795,7 +4795,7 @@
         <v>2.64</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.5100000000000005</v>
+        <v>0.02000000000000157</v>
       </c>
       <c r="AY9" t="n">
         <v>6.81</v>
@@ -4804,7 +4804,7 @@
         <v>18.25</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.4000000000000004</v>
+        <v>0.2000000000000013</v>
       </c>
       <c r="BB9" t="n">
         <v>3.24</v>
@@ -4813,7 +4813,7 @@
         <v>14.76</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.1699999999999981</v>
       </c>
       <c r="BE9" t="n">
         <v>3.76</v>
@@ -4822,7 +4822,7 @@
         <v>-9.98</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.84</v>
+        <v>0.5100000000000007</v>
       </c>
       <c r="BH9" t="n">
         <v>10.51</v>
@@ -4831,7 +4831,7 @@
         <v>-28.2</v>
       </c>
       <c r="BJ9" t="n">
-        <v>47.07999999999998</v>
+        <v>35.16999999999997</v>
       </c>
       <c r="BK9" t="n">
         <v>470.4</v>
@@ -4840,7 +4840,7 @@
         <v>11.28</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.02999999999999991</v>
+        <v>0.009999999999999887</v>
       </c>
       <c r="BN9" t="n">
         <v>0.71</v>
@@ -4849,7 +4849,7 @@
         <v>35.59</v>
       </c>
       <c r="BP9" t="n">
-        <v>1.359999999999999</v>
+        <v>0.140000000000001</v>
       </c>
       <c r="BQ9" t="n">
         <v>15.06</v>
@@ -4858,7 +4858,7 @@
         <v>14.51</v>
       </c>
       <c r="BS9" t="n">
-        <v>3.939999999999998</v>
+        <v>3.040000000000041</v>
       </c>
       <c r="BT9" t="n">
         <v>37.82</v>
@@ -4867,7 +4867,7 @@
         <v>6.28</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.6100000000000005</v>
+        <v>2.005340338229189e-15</v>
       </c>
       <c r="BW9" t="n">
         <v>7.96</v>
@@ -4876,7 +4876,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="BY9" t="n">
-        <v>1.229999999999999</v>
+        <v>1.029999999999991</v>
       </c>
       <c r="BZ9" t="n">
         <v>12.92</v>
@@ -4885,7 +4885,7 @@
         <v>17.72</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.1200000000000001</v>
+        <v>1.325328735646281e-15</v>
       </c>
       <c r="CC9" t="n">
         <v>3.54</v>
@@ -4903,7 +4903,7 @@
         <v>10.67</v>
       </c>
       <c r="CH9" t="n">
-        <v>1.460000000000001</v>
+        <v>1.120000000000027</v>
       </c>
       <c r="CI9" t="n">
         <v>61.4</v>
@@ -4921,7 +4921,7 @@
         <v>3.35</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.03999999999999959</v>
+        <v>0.00999999999999905</v>
       </c>
       <c r="CO9" t="n">
         <v>2.58</v>
@@ -4930,7 +4930,7 @@
         <v>-2.99</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.2999999999999917</v>
       </c>
       <c r="CR9" t="n">
         <v>5.79</v>
@@ -4939,7 +4939,7 @@
         <v>5.05</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.02000000000000041</v>
       </c>
       <c r="CU9" t="n">
         <v>8.85</v>
@@ -4957,7 +4957,7 @@
         <v>3.05</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.5199999999999996</v>
+        <v>0.2599999999999962</v>
       </c>
       <c r="DA9" t="n">
         <v>5.35</v>
@@ -4966,7 +4966,7 @@
         <v>2.36</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.25</v>
+        <v>0.0600000000000005</v>
       </c>
       <c r="DD9" t="n">
         <v>4.41</v>
@@ -4975,7 +4975,7 @@
         <v>-0.78</v>
       </c>
       <c r="DF9" t="n">
-        <v>1</v>
+        <v>0.09000000000000544</v>
       </c>
       <c r="DG9" t="n">
         <v>10.72</v>
@@ -4993,7 +4993,7 @@
         <v>6.51</v>
       </c>
       <c r="DL9" t="n">
-        <v>2.420000000000002</v>
+        <v>2.25999999999999</v>
       </c>
       <c r="DM9" t="n">
         <v>24.27</v>
@@ -5002,7 +5002,7 @@
         <v>10.91</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.1199999999999997</v>
+        <v>0.03999999999999924</v>
       </c>
       <c r="DP9" t="n">
         <v>3.18</v>
@@ -5156,7 +5156,7 @@
         <v>17.41</v>
       </c>
       <c r="H10" t="n">
-        <v>0.23</v>
+        <v>0.1199999999999979</v>
       </c>
       <c r="I10" t="n">
         <v>2.36</v>
@@ -5165,7 +5165,7 @@
         <v>5.07</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1899999999999995</v>
+        <v>0.03000000000000019</v>
       </c>
       <c r="L10" t="n">
         <v>5.61</v>
@@ -5174,7 +5174,7 @@
         <v>0.83</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04</v>
+        <v>1.734723475976807e-18</v>
       </c>
       <c r="O10" t="n">
         <v>0.04</v>
@@ -5183,7 +5183,7 @@
         <v>-8.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.019999999999996</v>
+        <v>0.6699999999999982</v>
       </c>
       <c r="R10" t="n">
         <v>36.5</v>
@@ -5192,7 +5192,7 @@
         <v>-11.89</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6900000000000004</v>
+        <v>0.6499999999999977</v>
       </c>
       <c r="U10" t="n">
         <v>7.69</v>
@@ -5201,7 +5201,7 @@
         <v>-0.34</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2600000000000002</v>
+        <v>0.05000000000000207</v>
       </c>
       <c r="X10" t="n">
         <v>8.859999999999999</v>
@@ -5210,7 +5210,7 @@
         <v>14.16</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2200000000000002</v>
+        <v>0.02000000000000038</v>
       </c>
       <c r="AA10" t="n">
         <v>2.69</v>
@@ -5219,7 +5219,7 @@
         <v>5.53</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.7300000000000004</v>
+        <v>0.2300000000000022</v>
       </c>
       <c r="AD10" t="n">
         <v>6.07</v>
@@ -5228,7 +5228,7 @@
         <v>0.23</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0799999999999999</v>
+        <v>0.0199999999999989</v>
       </c>
       <c r="AG10" t="n">
         <v>1.73</v>
@@ -5237,7 +5237,7 @@
         <v>-2.2</v>
       </c>
       <c r="AI10" t="n">
-        <v>122.3900000000001</v>
+        <v>5.249999999999901</v>
       </c>
       <c r="AJ10" t="n">
         <v>1268.88</v>
@@ -5246,7 +5246,7 @@
         <v>7.99</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.2</v>
+        <v>1.387778780781446e-15</v>
       </c>
       <c r="AM10" t="n">
         <v>1.78</v>
@@ -5255,7 +5255,7 @@
         <v>-8.9</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.07999999999999982</v>
       </c>
       <c r="AP10" t="n">
         <v>12.97</v>
@@ -5264,7 +5264,7 @@
         <v>9.68</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.6799999999999997</v>
+        <v>0.07999999999999918</v>
       </c>
       <c r="AS10" t="n">
         <v>7.2</v>
@@ -5273,7 +5273,7 @@
         <v>-0.03</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.0500000000000002</v>
       </c>
       <c r="AV10" t="n">
         <v>2.81</v>
@@ -5282,7 +5282,7 @@
         <v>2.26</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.7300000000000004</v>
+        <v>0.1799999999999968</v>
       </c>
       <c r="AY10" t="n">
         <v>8.050000000000001</v>
@@ -5291,7 +5291,7 @@
         <v>16.27</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.71</v>
+        <v>0.009999999999998788</v>
       </c>
       <c r="BB10" t="n">
         <v>3.59</v>
@@ -5309,7 +5309,7 @@
         <v>-12.64</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.300000000000001</v>
+        <v>0.04000000000000092</v>
       </c>
       <c r="BH10" t="n">
         <v>11.61</v>
@@ -5327,7 +5327,7 @@
         <v>12.16</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.06000000000000005</v>
+        <v>2.324529457808922e-16</v>
       </c>
       <c r="BN10" t="n">
         <v>0.78</v>
@@ -5336,7 +5336,7 @@
         <v>32.7</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.370000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="BQ10" t="n">
         <v>17.11</v>
@@ -5354,7 +5354,7 @@
         <v>6.6</v>
       </c>
       <c r="BV10" t="n">
-        <v>1.020000000000001</v>
+        <v>0.3299999999999961</v>
       </c>
       <c r="BW10" t="n">
         <v>9.25</v>
@@ -5372,7 +5372,7 @@
         <v>7.07</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.4199999999999995</v>
+        <v>0.1799999999999967</v>
       </c>
       <c r="CC10" t="n">
         <v>3.97</v>
@@ -5381,7 +5381,7 @@
         <v>10.23</v>
       </c>
       <c r="CE10" t="n">
-        <v>14.05000000000001</v>
+        <v>5.690000000000047</v>
       </c>
       <c r="CF10" t="n">
         <v>158.74</v>
@@ -5390,7 +5390,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="CH10" t="n">
-        <v>2.920000000000002</v>
+        <v>0.129999999999995</v>
       </c>
       <c r="CI10" t="n">
         <v>66.59</v>
@@ -5399,7 +5399,7 @@
         <v>-8.859999999999999</v>
       </c>
       <c r="CK10" t="n">
-        <v>1.93</v>
+        <v>1.370000000000004</v>
       </c>
       <c r="CL10" t="n">
         <v>18.03</v>
@@ -5408,7 +5408,7 @@
         <v>3.64</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.2599999999999998</v>
+        <v>0.1600000000000026</v>
       </c>
       <c r="CO10" t="n">
         <v>3.22</v>
@@ -5426,7 +5426,7 @@
         <v>5.87</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.8599999999999994</v>
+        <v>0.02999999999999936</v>
       </c>
       <c r="CU10" t="n">
         <v>10.64</v>
@@ -5444,7 +5444,7 @@
         <v>2.57</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.7300000000000004</v>
+        <v>0.2100000000000009</v>
       </c>
       <c r="DA10" t="n">
         <v>5.94</v>
@@ -5453,7 +5453,7 @@
         <v>3.4</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.4299999999999997</v>
+        <v>0.05999999999999871</v>
       </c>
       <c r="DD10" t="n">
         <v>4.95</v>
@@ -5489,7 +5489,7 @@
         <v>10.78</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.2800000000000002</v>
+        <v>0.04000000000000283</v>
       </c>
       <c r="DP10" t="n">
         <v>3.64</v>
@@ -5643,7 +5643,7 @@
         <v>15.52</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2600000000000002</v>
+        <v>0.03000000000000017</v>
       </c>
       <c r="I11" t="n">
         <v>2.51</v>
@@ -5652,7 +5652,7 @@
         <v>1.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3700000000000006</v>
+        <v>0.09000000000000051</v>
       </c>
       <c r="L11" t="n">
         <v>6.32</v>
@@ -5670,7 +5670,7 @@
         <v>-10.29</v>
       </c>
       <c r="Q11" t="n">
-        <v>40.46</v>
+        <v>31.08</v>
       </c>
       <c r="R11" t="n">
         <v>40.64</v>
@@ -5679,7 +5679,7 @@
         <v>-10.57</v>
       </c>
       <c r="T11" t="n">
-        <v>3.26</v>
+        <v>0.5600000000000016</v>
       </c>
       <c r="U11" t="n">
         <v>8.5</v>
@@ -5688,7 +5688,7 @@
         <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.18</v>
+        <v>0.6699999999999948</v>
       </c>
       <c r="X11" t="n">
         <v>10.13</v>
@@ -5697,7 +5697,7 @@
         <v>13.66</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.3599999999999999</v>
+        <v>0.01999999999999941</v>
       </c>
       <c r="AA11" t="n">
         <v>3.95</v>
@@ -5706,7 +5706,7 @@
         <v>42.66</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4999999999999996</v>
+        <v>0.0199999999999983</v>
       </c>
       <c r="AD11" t="n">
         <v>7.11</v>
@@ -5715,7 +5715,7 @@
         <v>4.76</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.02000000000000041</v>
+        <v>8.083811398051921e-16</v>
       </c>
       <c r="AG11" t="n">
         <v>1.92</v>
@@ -5724,7 +5724,7 @@
         <v>-8.960000000000001</v>
       </c>
       <c r="AI11" t="n">
-        <v>19.8899999999999</v>
+        <v>9.3900000000001</v>
       </c>
       <c r="AJ11" t="n">
         <v>1398.39</v>
@@ -5733,7 +5733,7 @@
         <v>7.78</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.29</v>
+        <v>0.2899999999999986</v>
       </c>
       <c r="AM11" t="n">
         <v>1.91</v>
@@ -5742,7 +5742,7 @@
         <v>6.67</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.2299999999999989</v>
+        <v>0.06999999999999901</v>
       </c>
       <c r="AP11" t="n">
         <v>14.15</v>
@@ -5751,7 +5751,7 @@
         <v>5.69</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.5300000000000002</v>
+        <v>0.3700000000000019</v>
       </c>
       <c r="AS11" t="n">
         <v>7.97</v>
@@ -5760,7 +5760,7 @@
         <v>1.08</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.5100000000000002</v>
+        <v>0.1899999999999997</v>
       </c>
       <c r="AV11" t="n">
         <v>3.16</v>
@@ -5769,7 +5769,7 @@
         <v>-3.46</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.8899999999999986</v>
+        <v>0.1599999999999981</v>
       </c>
       <c r="AY11" t="n">
         <v>9.23</v>
@@ -5778,7 +5778,7 @@
         <v>20.7</v>
       </c>
       <c r="BA11" t="n">
-        <v>3.48</v>
+        <v>2.140000000000001</v>
       </c>
       <c r="BB11" t="n">
         <v>4.05</v>
@@ -5787,7 +5787,7 @@
         <v>-4.75</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.4099999999999993</v>
+        <v>0.07999999999999839</v>
       </c>
       <c r="BE11" t="n">
         <v>4.39</v>
@@ -5805,7 +5805,7 @@
         <v>-27.59</v>
       </c>
       <c r="BJ11" t="n">
-        <v>49.42999999999995</v>
+        <v>27.70999999999967</v>
       </c>
       <c r="BK11" t="n">
         <v>581.09</v>
@@ -5814,7 +5814,7 @@
         <v>11.25</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.05999999999999994</v>
+        <v>0.02999999999999934</v>
       </c>
       <c r="BN11" t="n">
         <v>0.86</v>
@@ -5832,7 +5832,7 @@
         <v>19.14</v>
       </c>
       <c r="BS11" t="n">
-        <v>4.079999999999998</v>
+        <v>2.83999999999999</v>
       </c>
       <c r="BT11" t="n">
         <v>46.57</v>
@@ -5841,7 +5841,7 @@
         <v>6.37</v>
       </c>
       <c r="BV11" t="n">
-        <v>1.989999999999999</v>
+        <v>0.1899999999999986</v>
       </c>
       <c r="BW11" t="n">
         <v>10.14</v>
@@ -5850,7 +5850,7 @@
         <v>6.14</v>
       </c>
       <c r="BY11" t="n">
-        <v>1.51</v>
+        <v>0.6899999999999997</v>
       </c>
       <c r="BZ11" t="n">
         <v>16.19</v>
@@ -5859,7 +5859,7 @@
         <v>13.13</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.5100000000000011</v>
+        <v>0.09000000000000163</v>
       </c>
       <c r="CC11" t="n">
         <v>4.58</v>
@@ -5868,7 +5868,7 @@
         <v>14.11</v>
       </c>
       <c r="CE11" t="n">
-        <v>15.77999999999997</v>
+        <v>1.72999999999996</v>
       </c>
       <c r="CF11" t="n">
         <v>172.25</v>
@@ -5877,7 +5877,7 @@
         <v>8.119999999999999</v>
       </c>
       <c r="CH11" t="n">
-        <v>1.600000000000008</v>
+        <v>0.010000000000012</v>
       </c>
       <c r="CI11" t="n">
         <v>70.84999999999999</v>
@@ -5886,7 +5886,7 @@
         <v>-6.76</v>
       </c>
       <c r="CK11" t="n">
-        <v>1.630000000000002</v>
+        <v>0.119999999999999</v>
       </c>
       <c r="CL11" t="n">
         <v>19.93</v>
@@ -5895,7 +5895,7 @@
         <v>3.1</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.1800000000000006</v>
+        <v>0.00999999999999901</v>
       </c>
       <c r="CO11" t="n">
         <v>3.22</v>
@@ -5904,7 +5904,7 @@
         <v>-1.85</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.03000000000000025</v>
       </c>
       <c r="CR11" t="n">
         <v>7.33</v>
@@ -5913,7 +5913,7 @@
         <v>5.43</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.9800000000000006</v>
+        <v>0.03000000000000312</v>
       </c>
       <c r="CU11" t="n">
         <v>12.2</v>
@@ -5922,7 +5922,7 @@
         <v>15.94</v>
       </c>
       <c r="CW11" t="n">
-        <v>1.329999999999998</v>
+        <v>0.769999999999994</v>
       </c>
       <c r="CX11" t="n">
         <v>26.25</v>
@@ -5931,7 +5931,7 @@
         <v>2.66</v>
       </c>
       <c r="CZ11" t="n">
-        <v>5.75</v>
+        <v>4.389999999999997</v>
       </c>
       <c r="DA11" t="n">
         <v>6.79</v>
@@ -5940,7 +5940,7 @@
         <v>-2.92</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.3800000000000003</v>
+        <v>0.02000000000000091</v>
       </c>
       <c r="DD11" t="n">
         <v>5.69</v>
@@ -5949,7 +5949,7 @@
         <v>5.75</v>
       </c>
       <c r="DF11" t="n">
-        <v>1.039999999999999</v>
+        <v>0.599999999999995</v>
       </c>
       <c r="DG11" t="n">
         <v>13.33</v>
@@ -5958,7 +5958,7 @@
         <v>17.79</v>
       </c>
       <c r="DI11" t="n">
-        <v>1.850000000000009</v>
+        <v>0.350000000000009</v>
       </c>
       <c r="DJ11" t="n">
         <v>104.98</v>
@@ -5967,7 +5967,7 @@
         <v>9.58</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.8299999999999979</v>
+        <v>0.170000000000002</v>
       </c>
       <c r="DM11" t="n">
         <v>29.18</v>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.15</v>
+        <v>0.09999999999999959</v>
       </c>
       <c r="C12" t="n">
         <v>10.83</v>
@@ -6121,7 +6121,7 @@
         <v>4.96</v>
       </c>
       <c r="E12" t="n">
-        <v>4.569999999999997</v>
+        <v>3.569999999999997</v>
       </c>
       <c r="F12" t="n">
         <v>96.38</v>
@@ -6130,7 +6130,7 @@
         <v>6.89</v>
       </c>
       <c r="H12" t="n">
-        <v>0.41</v>
+        <v>0.05999999999999926</v>
       </c>
       <c r="I12" t="n">
         <v>3.11</v>
@@ -6139,7 +6139,7 @@
         <v>4.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.97</v>
+        <v>0.1499999999999967</v>
       </c>
       <c r="L12" t="n">
         <v>7.4</v>
@@ -6175,7 +6175,7 @@
         <v>-2.76</v>
       </c>
       <c r="W12" t="n">
-        <v>1.79</v>
+        <v>0.6100000000000001</v>
       </c>
       <c r="X12" t="n">
         <v>11.21</v>
@@ -6184,7 +6184,7 @@
         <v>-0.29</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.54</v>
+        <v>1.658395643033828e-15</v>
       </c>
       <c r="AA12" t="n">
         <v>3.58</v>
@@ -6193,7 +6193,7 @@
         <v>6.96</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.08</v>
+        <v>0.04000000000000431</v>
       </c>
       <c r="AD12" t="n">
         <v>7.63</v>
@@ -6202,7 +6202,7 @@
         <v>-4.82</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.34</v>
+        <v>0.279999999999998</v>
       </c>
       <c r="AG12" t="n">
         <v>2.2</v>
@@ -6211,7 +6211,7 @@
         <v>-10.91</v>
       </c>
       <c r="AI12" t="n">
-        <v>89.53</v>
+        <v>15.2200000000003</v>
       </c>
       <c r="AJ12" t="n">
         <v>1554.5</v>
@@ -6229,7 +6229,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.130000000000001</v>
+        <v>0.060000000000002</v>
       </c>
       <c r="AP12" t="n">
         <v>16.11</v>
@@ -6247,7 +6247,7 @@
         <v>3.79</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.41</v>
+        <v>0.06999999999999967</v>
       </c>
       <c r="AV12" t="n">
         <v>3.73</v>
@@ -6256,7 +6256,7 @@
         <v>-1.68</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.32</v>
+        <v>0.1100000000000053</v>
       </c>
       <c r="AY12" t="n">
         <v>10.19</v>
@@ -6274,7 +6274,7 @@
         <v>10.85</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.1300000000000003</v>
+        <v>0.05000000000000192</v>
       </c>
       <c r="BE12" t="n">
         <v>5.37</v>
@@ -6283,7 +6283,7 @@
         <v>-7.15</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.2600000000000011</v>
+        <v>0.2200000000000091</v>
       </c>
       <c r="BH12" t="n">
         <v>13.79</v>
@@ -6292,7 +6292,7 @@
         <v>-27.79</v>
       </c>
       <c r="BJ12" t="n">
-        <v>56.07000000000005</v>
+        <v>6.6400000000001</v>
       </c>
       <c r="BK12" t="n">
         <v>643.87</v>
@@ -6301,7 +6301,7 @@
         <v>12.61</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.04000000000000001</v>
+        <v>0.01000000000000021</v>
       </c>
       <c r="BN12" t="n">
         <v>1</v>
@@ -6310,7 +6310,7 @@
         <v>29.31</v>
       </c>
       <c r="BP12" t="n">
-        <v>1.33</v>
+        <v>0.97</v>
       </c>
       <c r="BQ12" t="n">
         <v>21.74</v>
@@ -6328,7 +6328,7 @@
         <v>16.7</v>
       </c>
       <c r="BV12" t="n">
-        <v>1.41</v>
+        <v>0.2500000000000031</v>
       </c>
       <c r="BW12" t="n">
         <v>12.49</v>
@@ -6337,7 +6337,7 @@
         <v>-0.53</v>
       </c>
       <c r="BY12" t="n">
-        <v>2.06</v>
+        <v>0.55</v>
       </c>
       <c r="BZ12" t="n">
         <v>19.18</v>
@@ -6346,7 +6346,7 @@
         <v>15.26</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.58</v>
+        <v>0.06999999999999884</v>
       </c>
       <c r="CC12" t="n">
         <v>5.32</v>
@@ -6355,7 +6355,7 @@
         <v>7.42</v>
       </c>
       <c r="CE12" t="n">
-        <v>28.32</v>
+        <v>7.350000000000151</v>
       </c>
       <c r="CF12" t="n">
         <v>196.88</v>
@@ -6364,7 +6364,7 @@
         <v>4.09</v>
       </c>
       <c r="CH12" t="n">
-        <v>8.929999999999989</v>
+        <v>5.579999999999955</v>
       </c>
       <c r="CI12" t="n">
         <v>76.09999999999999</v>
@@ -6373,7 +6373,7 @@
         <v>-5.47</v>
       </c>
       <c r="CK12" t="n">
-        <v>2.85</v>
+        <v>1.219999999999998</v>
       </c>
       <c r="CL12" t="n">
         <v>23.64</v>
@@ -6391,7 +6391,7 @@
         <v>-3.17</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.4099999999999999</v>
+        <v>0.2399999999999989</v>
       </c>
       <c r="CR12" t="n">
         <v>8.289999999999999</v>
@@ -6400,7 +6400,7 @@
         <v>6.38</v>
       </c>
       <c r="CT12" t="n">
-        <v>1.62</v>
+        <v>0.3699999999999939</v>
       </c>
       <c r="CU12" t="n">
         <v>14.13</v>
@@ -6409,7 +6409,7 @@
         <v>14.33</v>
       </c>
       <c r="CW12" t="n">
-        <v>3.25</v>
+        <v>0.7300000000000049</v>
       </c>
       <c r="CX12" t="n">
         <v>30.37</v>
@@ -6427,7 +6427,7 @@
         <v>5.58</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.93</v>
+        <v>0.1499999999999986</v>
       </c>
       <c r="DD12" t="n">
         <v>6.67</v>
@@ -6436,7 +6436,7 @@
         <v>3.54</v>
       </c>
       <c r="DF12" t="n">
-        <v>1.81</v>
+        <v>0.06000000000000516</v>
       </c>
       <c r="DG12" t="n">
         <v>15.72</v>
@@ -6445,7 +6445,7 @@
         <v>16.85</v>
       </c>
       <c r="DI12" t="n">
-        <v>7.599999999999991</v>
+        <v>3.199999999999956</v>
       </c>
       <c r="DJ12" t="n">
         <v>115.73</v>
@@ -6454,7 +6454,7 @@
         <v>9.66</v>
       </c>
       <c r="DL12" t="n">
-        <v>1.220000000000002</v>
+        <v>0.0500000000000001</v>
       </c>
       <c r="DM12" t="n">
         <v>33.44</v>
@@ -6463,7 +6463,7 @@
         <v>9.19</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.1599999999999997</v>
+        <v>0.07999999999999957</v>
       </c>
       <c r="DP12" t="n">
         <v>4.5</v>
@@ -6599,7 +6599,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9100000000000001</v>
+        <v>0.01000000000000072</v>
       </c>
       <c r="C13" t="n">
         <v>1.33</v>
@@ -6608,7 +6608,7 @@
         <v>15.59</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>1.110000000000007</v>
       </c>
       <c r="F13" t="n">
         <v>13.17</v>
@@ -6617,7 +6617,7 @@
         <v>-2.58</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1200000000000001</v>
+        <v>5.134781488891349e-16</v>
       </c>
       <c r="I13" t="n">
         <v>0.4</v>
@@ -6626,7 +6626,7 @@
         <v>-2.58</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.1500000000000017</v>
       </c>
       <c r="L13" t="n">
         <v>1.03</v>
@@ -6635,7 +6635,7 @@
         <v>5.51</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01</v>
+        <v>0.009999999999999979</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -6662,7 +6662,7 @@
         <v>-5.27</v>
       </c>
       <c r="W13" t="n">
-        <v>1.05</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="X13" t="n">
         <v>2.2</v>
@@ -6671,7 +6671,7 @@
         <v>23.01</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.25</v>
+        <v>0.00999999999999826</v>
       </c>
       <c r="AA13" t="n">
         <v>0.58</v>
@@ -6680,7 +6680,7 @@
         <v>8.630000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.52</v>
+        <v>0.3799999999999965</v>
       </c>
       <c r="AD13" t="n">
         <v>1.13</v>
@@ -6698,7 +6698,7 @@
         <v>-4.6</v>
       </c>
       <c r="AI13" t="n">
-        <v>124.2</v>
+        <v>4.8099999999997</v>
       </c>
       <c r="AJ13" t="n">
         <v>276</v>
@@ -6716,7 +6716,7 @@
         <v>-2.33</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.52</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="AP13" t="n">
         <v>2.09</v>
@@ -6725,7 +6725,7 @@
         <v>9.039999999999999</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AS13" t="n">
         <v>1.3</v>
@@ -6734,7 +6734,7 @@
         <v>3.94</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.34</v>
+        <v>0.2000000000000007</v>
       </c>
       <c r="AV13" t="n">
         <v>0.4</v>
@@ -6743,7 +6743,7 @@
         <v>-2.72</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.1199999999999931</v>
       </c>
       <c r="AY13" t="n">
         <v>1.51</v>
@@ -6761,7 +6761,7 @@
         <v>6.47</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.7</v>
+        <v>0.1799999999999986</v>
       </c>
       <c r="BE13" t="n">
         <v>0.83</v>
@@ -6770,7 +6770,7 @@
         <v>-14.55</v>
       </c>
       <c r="BG13" t="n">
-        <v>1.38</v>
+        <v>0.3999999999999837</v>
       </c>
       <c r="BH13" t="n">
         <v>1.8</v>
@@ -6779,7 +6779,7 @@
         <v>14.4</v>
       </c>
       <c r="BJ13" t="n">
-        <v>50.47999999999999</v>
+        <v>30.55999999999969</v>
       </c>
       <c r="BK13" t="n">
         <v>141.12</v>
@@ -6788,7 +6788,7 @@
         <v>33.77</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.09</v>
+        <v>0.009999999999999981</v>
       </c>
       <c r="BN13" t="n">
         <v>0.19</v>
@@ -6797,7 +6797,7 @@
         <v>16.37</v>
       </c>
       <c r="BP13" t="n">
-        <v>1.61</v>
+        <v>0.28</v>
       </c>
       <c r="BQ13" t="n">
         <v>4.01</v>
@@ -6806,7 +6806,7 @@
         <v>27.37</v>
       </c>
       <c r="BS13" t="n">
-        <v>3.1</v>
+        <v>0.4299999999999979</v>
       </c>
       <c r="BT13" t="n">
         <v>7.4</v>
@@ -6815,7 +6815,7 @@
         <v>9.67</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.8300000000000003</v>
+        <v>0.3899999999999986</v>
       </c>
       <c r="BW13" t="n">
         <v>1.64</v>
@@ -6824,7 +6824,7 @@
         <v>15.82</v>
       </c>
       <c r="BY13" t="n">
-        <v>1.06</v>
+        <v>0.51</v>
       </c>
       <c r="BZ13" t="n">
         <v>2.3</v>
@@ -6833,7 +6833,7 @@
         <v>11.63</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.4400000000000001</v>
+        <v>0.2300000000000035</v>
       </c>
       <c r="CC13" t="n">
         <v>0.58</v>
@@ -6842,7 +6842,7 @@
         <v>0.6</v>
       </c>
       <c r="CE13" t="n">
-        <v>16.43</v>
+        <v>3.88999999999997</v>
       </c>
       <c r="CF13" t="n">
         <v>30.28</v>
@@ -6851,7 +6851,7 @@
         <v>6.92</v>
       </c>
       <c r="CH13" t="n">
-        <v>8.699999999999999</v>
+        <v>1.370000000000018</v>
       </c>
       <c r="CI13" t="n">
         <v>13.49</v>
@@ -6860,7 +6860,7 @@
         <v>0.34</v>
       </c>
       <c r="CK13" t="n">
-        <v>1.8</v>
+        <v>0.5800000000000021</v>
       </c>
       <c r="CL13" t="n">
         <v>2.94</v>
@@ -6869,7 +6869,7 @@
         <v>3.06</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.2999999999999999</v>
+        <v>0.03000000000000097</v>
       </c>
       <c r="CO13" t="n">
         <v>0.48</v>
@@ -6878,7 +6878,7 @@
         <v>-8.73</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.02999999999999997</v>
       </c>
       <c r="CR13" t="n">
         <v>1.53</v>
@@ -6887,7 +6887,7 @@
         <v>23.32</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.9499999999999997</v>
+        <v>0.3100000000000003</v>
       </c>
       <c r="CU13" t="n">
         <v>1.67</v>
@@ -6896,7 +6896,7 @@
         <v>3.37</v>
       </c>
       <c r="CW13" t="n">
-        <v>2.59</v>
+        <v>0.6699999999999979</v>
       </c>
       <c r="CX13" t="n">
         <v>3.52</v>
@@ -6914,7 +6914,7 @@
         <v>14.2</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.34</v>
+        <v>9.992007221626409e-16</v>
       </c>
       <c r="DD13" t="n">
         <v>0.88</v>
@@ -6923,7 +6923,7 @@
         <v>-4.93</v>
       </c>
       <c r="DF13" t="n">
-        <v>1.11</v>
+        <v>0.339999999999999</v>
       </c>
       <c r="DG13" t="n">
         <v>2.03</v>
@@ -6932,7 +6932,7 @@
         <v>12.26</v>
       </c>
       <c r="DI13" t="n">
-        <v>7</v>
+        <v>1.250000000000018</v>
       </c>
       <c r="DJ13" t="n">
         <v>19.34</v>
@@ -6941,7 +6941,7 @@
         <v>11.58</v>
       </c>
       <c r="DL13" t="n">
-        <v>2.46</v>
+        <v>0.2399999999999877</v>
       </c>
       <c r="DM13" t="n">
         <v>5.2</v>
@@ -6950,7 +6950,7 @@
         <v>8.35</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.2999999999999999</v>
+        <v>0.06000000000000064</v>
       </c>
       <c r="DP13" t="n">
         <v>0.55</v>
@@ -7086,7 +7086,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6999999999999997</v>
+        <v>0.4799999999999991</v>
       </c>
       <c r="C14" t="n">
         <v>2.29</v>
@@ -7095,7 +7095,7 @@
         <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>8.699999999999999</v>
+        <v>1.049999999999982</v>
       </c>
       <c r="F14" t="n">
         <v>23.2</v>
@@ -7104,7 +7104,7 @@
         <v>-1.3</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2099999999999999</v>
+        <v>0.08999999999999929</v>
       </c>
       <c r="I14" t="n">
         <v>0.64</v>
@@ -7113,7 +7113,7 @@
         <v>19.9</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4099999999999984</v>
       </c>
       <c r="L14" t="n">
         <v>1.58</v>
@@ -7122,7 +7122,7 @@
         <v>2.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01</v>
+        <v>5.204170427930421e-18</v>
       </c>
       <c r="O14" t="n">
         <v>0.01</v>
@@ -7203,7 +7203,7 @@
         <v>-0.9</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.15</v>
+        <v>0.0200000000000029</v>
       </c>
       <c r="AP14" t="n">
         <v>3.68</v>
@@ -7221,7 +7221,7 @@
         <v>-1.2</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.29</v>
+        <v>0.01999999999999957</v>
       </c>
       <c r="AV14" t="n">
         <v>0.71</v>
@@ -7248,7 +7248,7 @@
         <v>-4.1</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.5400000000000003</v>
+        <v>0.100000000000001</v>
       </c>
       <c r="BE14" t="n">
         <v>1.59</v>
@@ -7275,7 +7275,7 @@
         <v>31.7</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.02</v>
+        <v>3.816391647148976e-17</v>
       </c>
       <c r="BN14" t="n">
         <v>0.3</v>
@@ -7284,7 +7284,7 @@
         <v>17.5</v>
       </c>
       <c r="BP14" t="n">
-        <v>1.57</v>
+        <v>0.73</v>
       </c>
       <c r="BQ14" t="n">
         <v>6.35</v>
@@ -7293,7 +7293,7 @@
         <v>33.3</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.48</v>
+        <v>0.0500000000000021</v>
       </c>
       <c r="BT14" t="n">
         <v>10.31</v>
@@ -7302,7 +7302,7 @@
         <v>4.7</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.7899999999999996</v>
+        <v>0.400000000000001</v>
       </c>
       <c r="BW14" t="n">
         <v>2.66</v>
@@ -7320,7 +7320,7 @@
         <v>15.4</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.3899999999999999</v>
+        <v>0.01999999999999863</v>
       </c>
       <c r="CC14" t="n">
         <v>1.05</v>
@@ -7329,7 +7329,7 @@
         <v>2.8</v>
       </c>
       <c r="CE14" t="n">
-        <v>14.72</v>
+        <v>6.94000000000006</v>
       </c>
       <c r="CF14" t="n">
         <v>46.13</v>
@@ -7338,7 +7338,7 @@
         <v>3.1</v>
       </c>
       <c r="CH14" t="n">
-        <v>8.32</v>
+        <v>5.579999999999965</v>
       </c>
       <c r="CI14" t="n">
         <v>18.39</v>
@@ -7347,7 +7347,7 @@
         <v>-17</v>
       </c>
       <c r="CK14" t="n">
-        <v>1.609999999999999</v>
+        <v>0.4499999999999948</v>
       </c>
       <c r="CL14" t="n">
         <v>5.02</v>
@@ -7356,7 +7356,7 @@
         <v>7.9</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.2300000000000001</v>
+        <v>0.01999999999999991</v>
       </c>
       <c r="CO14" t="n">
         <v>0.74</v>
@@ -7365,7 +7365,7 @@
         <v>-11</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.14</v>
+        <v>0.05000000000000006</v>
       </c>
       <c r="CR14" t="n">
         <v>1.81</v>
@@ -7383,7 +7383,7 @@
         <v>2.9</v>
       </c>
       <c r="CW14" t="n">
-        <v>2.199999999999999</v>
+        <v>0.860000000000003</v>
       </c>
       <c r="CX14" t="n">
         <v>6.46</v>
@@ -7401,7 +7401,7 @@
         <v>15.4</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.1599999999999996</v>
       </c>
       <c r="DD14" t="n">
         <v>1.49</v>
@@ -7419,7 +7419,7 @@
         <v>12.4</v>
       </c>
       <c r="DI14" t="n">
-        <v>2.73</v>
+        <v>0.229999999999964</v>
       </c>
       <c r="DJ14" t="n">
         <v>30.43</v>
@@ -7582,7 +7582,7 @@
         <v>18.2</v>
       </c>
       <c r="E15" t="n">
-        <v>8.100000000000001</v>
+        <v>2.670000000000016</v>
       </c>
       <c r="F15" t="n">
         <v>32.18</v>
@@ -7591,7 +7591,7 @@
         <v>-0.1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.13</v>
+        <v>0.0400000000000002</v>
       </c>
       <c r="I15" t="n">
         <v>1.01</v>
@@ -7609,7 +7609,7 @@
         <v>3.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02</v>
+        <v>0.00999999999999999</v>
       </c>
       <c r="O15" t="n">
         <v>0.01</v>
@@ -7636,7 +7636,7 @@
         <v>0.6</v>
       </c>
       <c r="W15" t="n">
-        <v>0.4900000000000003</v>
+        <v>0.05000000000000043</v>
       </c>
       <c r="X15" t="n">
         <v>4.55</v>
@@ -7645,7 +7645,7 @@
         <v>38.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="AA15" t="n">
         <v>1.16</v>
@@ -7654,7 +7654,7 @@
         <v>10.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.5499999999999998</v>
+        <v>0.0699999999999994</v>
       </c>
       <c r="AD15" t="n">
         <v>2.57</v>
@@ -7663,7 +7663,7 @@
         <v>14.8</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.09999999999999991</v>
       </c>
       <c r="AG15" t="n">
         <v>0.73</v>
@@ -7672,7 +7672,7 @@
         <v>6.8</v>
       </c>
       <c r="AI15" t="n">
-        <v>123.45</v>
+        <v>71.92999999999996</v>
       </c>
       <c r="AJ15" t="n">
         <v>563.37</v>
@@ -7681,7 +7681,7 @@
         <v>14.3</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="AM15" t="n">
         <v>0.58</v>
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.1000000000000001</v>
+        <v>3.469446951953614e-17</v>
       </c>
       <c r="AY15" t="n">
         <v>3.12</v>
@@ -7735,7 +7735,7 @@
         <v>-1.5</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.3199999999999988</v>
       </c>
       <c r="BE15" t="n">
         <v>1.98</v>
@@ -7744,7 +7744,7 @@
         <v>-10.8</v>
       </c>
       <c r="BG15" t="n">
-        <v>1.29</v>
+        <v>0.4499999999999995</v>
       </c>
       <c r="BH15" t="n">
         <v>4.42</v>
@@ -7753,7 +7753,7 @@
         <v>-2.7</v>
       </c>
       <c r="BJ15" t="n">
-        <v>42.46999999999997</v>
+        <v>8.059999999999878</v>
       </c>
       <c r="BK15" t="n">
         <v>272.38</v>
@@ -7762,7 +7762,7 @@
         <v>25</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.06</v>
+        <v>0.009999999999999971</v>
       </c>
       <c r="BN15" t="n">
         <v>0.4</v>
@@ -7780,7 +7780,7 @@
         <v>29.5</v>
       </c>
       <c r="BS15" t="n">
-        <v>3.220000000000001</v>
+        <v>2.159999999999997</v>
       </c>
       <c r="BT15" t="n">
         <v>14.48</v>
@@ -7798,7 +7798,7 @@
         <v>11.7</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.28</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="BZ15" t="n">
         <v>5.04</v>
@@ -7807,7 +7807,7 @@
         <v>15.6</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.0300000000000003</v>
+        <v>0.01000000000000167</v>
       </c>
       <c r="CC15" t="n">
         <v>1.31</v>
@@ -7843,7 +7843,7 @@
         <v>9.6</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.1299999999999998</v>
+        <v>0.09</v>
       </c>
       <c r="CO15" t="n">
         <v>1.04</v>
@@ -7852,7 +7852,7 @@
         <v>-2</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.2700000000000002</v>
+        <v>0.0200000000000002</v>
       </c>
       <c r="CR15" t="n">
         <v>2.56</v>
@@ -7897,7 +7897,7 @@
         <v>20.7</v>
       </c>
       <c r="DF15" t="n">
-        <v>1.08</v>
+        <v>0.8000000000000005</v>
       </c>
       <c r="DG15" t="n">
         <v>4.58</v>
@@ -7906,7 +7906,7 @@
         <v>11.6</v>
       </c>
       <c r="DI15" t="n">
-        <v>9.68</v>
+        <v>0.01000000000001711</v>
       </c>
       <c r="DJ15" t="n">
         <v>39.36</v>
@@ -7924,7 +7924,7 @@
         <v>12</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.01999999999999991</v>
       </c>
       <c r="DP15" t="n">
         <v>1.17</v>
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3</v>
+        <v>0.0299999999999991</v>
       </c>
       <c r="C16" t="n">
         <v>4.37</v>
@@ -8078,7 +8078,7 @@
         <v>5.8</v>
       </c>
       <c r="H16" t="n">
-        <v>0.14</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="I16" t="n">
         <v>1.13</v>
@@ -8087,7 +8087,7 @@
         <v>14.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1300000000000003</v>
+        <v>0.03000000000000067</v>
       </c>
       <c r="L16" t="n">
         <v>2.87</v>
@@ -8096,7 +8096,7 @@
         <v>5.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.009999999999999998</v>
+        <v>3.469446951953614e-18</v>
       </c>
       <c r="O16" t="n">
         <v>0.01</v>
@@ -8105,7 +8105,7 @@
         <v>-45.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.740000000000002</v>
+        <v>1.480000000000004</v>
       </c>
       <c r="R16" t="n">
         <v>18.2</v>
@@ -8123,7 +8123,7 @@
         <v>6.6</v>
       </c>
       <c r="W16" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.00999999999999962</v>
       </c>
       <c r="X16" t="n">
         <v>4.88</v>
@@ -8168,7 +8168,7 @@
         <v>14.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.009999999999999898</v>
       </c>
       <c r="AM16" t="n">
         <v>0.76</v>
@@ -8177,7 +8177,7 @@
         <v>-6.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.3999999999999995</v>
       </c>
       <c r="AP16" t="n">
         <v>6.81</v>
@@ -8186,7 +8186,7 @@
         <v>16.6</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.2799999999999997</v>
       </c>
       <c r="AS16" t="n">
         <v>3.5</v>
@@ -8195,7 +8195,7 @@
         <v>-5</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.03999999999999992</v>
+        <v>0.009999999999999889</v>
       </c>
       <c r="AV16" t="n">
         <v>1.39</v>
@@ -8204,7 +8204,7 @@
         <v>3.8</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.6600000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="AY16" t="n">
         <v>4.09</v>
@@ -8213,7 +8213,7 @@
         <v>16.9</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.3999999999999997</v>
+        <v>0.1599999999999991</v>
       </c>
       <c r="BB16" t="n">
         <v>1.53</v>
@@ -8231,7 +8231,7 @@
         <v>-12.9</v>
       </c>
       <c r="BG16" t="n">
-        <v>1.25</v>
+        <v>0.1699999999999999</v>
       </c>
       <c r="BH16" t="n">
         <v>5.86</v>
@@ -8249,7 +8249,7 @@
         <v>27.4</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.05</v>
+        <v>0.01000000000000002</v>
       </c>
       <c r="BN16" t="n">
         <v>0.47</v>
@@ -8258,7 +8258,7 @@
         <v>11.7</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.510000000000002</v>
+        <v>0.09000000000000502</v>
       </c>
       <c r="BQ16" t="n">
         <v>10.41</v>
@@ -8267,7 +8267,7 @@
         <v>29.4</v>
       </c>
       <c r="BS16" t="n">
-        <v>4.559999999999999</v>
+        <v>1.339999999999998</v>
       </c>
       <c r="BT16" t="n">
         <v>21.74</v>
@@ -8285,7 +8285,7 @@
         <v>7.2</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.6500000000000008</v>
+        <v>0.07000000000000049</v>
       </c>
       <c r="BZ16" t="n">
         <v>6.59</v>
@@ -8303,7 +8303,7 @@
         <v>-4.4</v>
       </c>
       <c r="CE16" t="n">
-        <v>14.58</v>
+        <v>3.659999999999981</v>
       </c>
       <c r="CF16" t="n">
         <v>81.29000000000001</v>
@@ -8312,7 +8312,7 @@
         <v>2.1</v>
       </c>
       <c r="CH16" t="n">
-        <v>5.780000000000001</v>
+        <v>5.099999999999994</v>
       </c>
       <c r="CI16" t="n">
         <v>32.34</v>
@@ -8330,7 +8330,7 @@
         <v>10.1</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.29</v>
+        <v>0.03000000000000039</v>
       </c>
       <c r="CO16" t="n">
         <v>1.32</v>
@@ -8339,7 +8339,7 @@
         <v>-7</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.8000000000000003</v>
+        <v>0.2499999999999994</v>
       </c>
       <c r="CR16" t="n">
         <v>3.34</v>
@@ -8348,7 +8348,7 @@
         <v>7.3</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.3899999999999999</v>
+        <v>0.2699999999999998</v>
       </c>
       <c r="CU16" t="n">
         <v>4.84</v>
@@ -8402,7 +8402,7 @@
         <v>12.6</v>
       </c>
       <c r="DL16" t="n">
-        <v>2.76</v>
+        <v>2.280000000000008</v>
       </c>
       <c r="DM16" t="n">
         <v>14.82</v>
@@ -8411,7 +8411,7 @@
         <v>16</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.1199999999999999</v>
+        <v>1.214306433183765e-16</v>
       </c>
       <c r="DP16" t="n">
         <v>1.6</v>
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6400000000000006</v>
+        <v>0.01000000000000149</v>
       </c>
       <c r="C17" t="n">
         <v>5.53</v>
@@ -8565,7 +8565,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.01999999999999985</v>
       </c>
       <c r="I17" t="n">
         <v>1.44</v>
@@ -8574,7 +8574,7 @@
         <v>14.4</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5899999999999999</v>
+        <v>0.3199999999999976</v>
       </c>
       <c r="L17" t="n">
         <v>3.56</v>
@@ -8583,7 +8583,7 @@
         <v>3.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.02</v>
+        <v>1.734723475976807e-18</v>
       </c>
       <c r="O17" t="n">
         <v>0.01</v>
@@ -8601,7 +8601,7 @@
         <v>5.8</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2599999999999998</v>
+        <v>0.1799999999999998</v>
       </c>
       <c r="U17" t="n">
         <v>1.84</v>
@@ -8610,7 +8610,7 @@
         <v>5</v>
       </c>
       <c r="W17" t="n">
-        <v>0.7800000000000002</v>
+        <v>0.640000000000001</v>
       </c>
       <c r="X17" t="n">
         <v>5.97</v>
@@ -8619,7 +8619,7 @@
         <v>14.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.05999999999999978</v>
       </c>
       <c r="AA17" t="n">
         <v>1.68</v>
@@ -8628,7 +8628,7 @@
         <v>3.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5999999999999996</v>
+        <v>0.1199999999999994</v>
       </c>
       <c r="AD17" t="n">
         <v>3.99</v>
@@ -8637,7 +8637,7 @@
         <v>13.8</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.0299999999999995</v>
       </c>
       <c r="AG17" t="n">
         <v>1.19</v>
@@ -8646,7 +8646,7 @@
         <v>7.6</v>
       </c>
       <c r="AI17" t="n">
-        <v>124.54</v>
+        <v>114.94</v>
       </c>
       <c r="AJ17" t="n">
         <v>859.0599999999999</v>
@@ -8655,7 +8655,7 @@
         <v>15.7</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.1300000000000001</v>
+        <v>0.1100000000000003</v>
       </c>
       <c r="AM17" t="n">
         <v>1.25</v>
@@ -8664,7 +8664,7 @@
         <v>29.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="AP17" t="n">
         <v>8.76</v>
@@ -8673,7 +8673,7 @@
         <v>11.1</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.6100000000000003</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="AS17" t="n">
         <v>4.67</v>
@@ -8682,7 +8682,7 @@
         <v>0.8</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.2200000000000005</v>
       </c>
       <c r="AV17" t="n">
         <v>1.76</v>
@@ -8700,7 +8700,7 @@
         <v>21.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.3600000000000003</v>
+        <v>0.02000000000000079</v>
       </c>
       <c r="BB17" t="n">
         <v>1.98</v>
@@ -8718,7 +8718,7 @@
         <v>-11.3</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.9900000000000002</v>
+        <v>0.6500000000000004</v>
       </c>
       <c r="BH17" t="n">
         <v>7.11</v>
@@ -8727,7 +8727,7 @@
         <v>0.5</v>
       </c>
       <c r="BJ17" t="n">
-        <v>7.949999999999989</v>
+        <v>1.429999999999893</v>
       </c>
       <c r="BK17" t="n">
         <v>393.44</v>
@@ -8736,7 +8736,7 @@
         <v>28.5</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.02999999999999995</v>
       </c>
       <c r="BN17" t="n">
         <v>0.5600000000000001</v>
@@ -8745,7 +8745,7 @@
         <v>6.1</v>
       </c>
       <c r="BP17" t="n">
-        <v>1.35</v>
+        <v>0.1499999999999861</v>
       </c>
       <c r="BQ17" t="n">
         <v>12.67</v>
@@ -8754,7 +8754,7 @@
         <v>23.4</v>
       </c>
       <c r="BS17" t="n">
-        <v>4.09</v>
+        <v>0.07000000000000584</v>
       </c>
       <c r="BT17" t="n">
         <v>27.08</v>
@@ -8763,7 +8763,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BV17" t="n">
-        <v>1.17</v>
+        <v>0.6100000000000039</v>
       </c>
       <c r="BW17" t="n">
         <v>6.12</v>
@@ -8772,7 +8772,7 @@
         <v>14.8</v>
       </c>
       <c r="BY17" t="n">
-        <v>1.17</v>
+        <v>0.1499999999999984</v>
       </c>
       <c r="BZ17" t="n">
         <v>8.640000000000001</v>
@@ -8781,7 +8781,7 @@
         <v>7.3</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.04000000000000048</v>
+        <v>2.440755930699368e-15</v>
       </c>
       <c r="CC17" t="n">
         <v>2.28</v>
@@ -8790,7 +8790,7 @@
         <v>0.6</v>
       </c>
       <c r="CE17" t="n">
-        <v>4.67</v>
+        <v>1.010000000000019</v>
       </c>
       <c r="CF17" t="n">
         <v>94.36</v>
@@ -8808,7 +8808,7 @@
         <v>-8.9</v>
       </c>
       <c r="CK17" t="n">
-        <v>1.700000000000001</v>
+        <v>1.660000000000001</v>
       </c>
       <c r="CL17" t="n">
         <v>11.03</v>
@@ -8817,7 +8817,7 @@
         <v>10.8</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.25</v>
+        <v>0.02999999999999902</v>
       </c>
       <c r="CO17" t="n">
         <v>1.68</v>
@@ -8826,7 +8826,7 @@
         <v>-1.9</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.02000000000000007</v>
       </c>
       <c r="CR17" t="n">
         <v>4.26</v>
@@ -8835,7 +8835,7 @@
         <v>9</v>
       </c>
       <c r="CT17" t="n">
-        <v>1.29</v>
+        <v>0.2100000000000005</v>
       </c>
       <c r="CU17" t="n">
         <v>6.25</v>
@@ -8844,7 +8844,7 @@
         <v>0.8</v>
       </c>
       <c r="CW17" t="n">
-        <v>2.279999999999999</v>
+        <v>1.559999999999999</v>
       </c>
       <c r="CX17" t="n">
         <v>15.73</v>
@@ -8853,7 +8853,7 @@
         <v>19.7</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.52</v>
+        <v>0.0800000000000004</v>
       </c>
       <c r="DA17" t="n">
         <v>3.89</v>
@@ -8862,7 +8862,7 @@
         <v>12.9</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.1299999999999994</v>
+        <v>0.04999999999999893</v>
       </c>
       <c r="DD17" t="n">
         <v>3.07</v>
@@ -8871,7 +8871,7 @@
         <v>17.2</v>
       </c>
       <c r="DF17" t="n">
-        <v>1.04</v>
+        <v>0.3600000000000003</v>
       </c>
       <c r="DG17" t="n">
         <v>7.67</v>
@@ -8880,7 +8880,7 @@
         <v>19.4</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.7300000000000004</v>
+        <v>0.4499999999999993</v>
       </c>
       <c r="DJ17" t="n">
         <v>62.28</v>
@@ -8898,7 +8898,7 @@
         <v>15.9</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.3399999999999999</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="DP17" t="n">
         <v>2.04</v>
@@ -9034,7 +9034,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3099999999999996</v>
+        <v>0.1699999999999972</v>
       </c>
       <c r="C18" t="n">
         <v>6.2</v>
@@ -9043,7 +9043,7 @@
         <v>17.4</v>
       </c>
       <c r="E18" t="n">
-        <v>8.330000000000005</v>
+        <v>7.890000000000008</v>
       </c>
       <c r="F18" t="n">
         <v>63.41</v>
@@ -9052,7 +9052,7 @@
         <v>9.6</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03000000000000011</v>
+        <v>2.498001805406602e-16</v>
       </c>
       <c r="I18" t="n">
         <v>1.79</v>
@@ -9061,7 +9061,7 @@
         <v>23.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.46</v>
+        <v>4.996003610813204e-16</v>
       </c>
       <c r="L18" t="n">
         <v>4.23</v>
@@ -9070,7 +9070,7 @@
         <v>4.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.03</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="O18" t="n">
         <v>0.01</v>
@@ -9079,7 +9079,7 @@
         <v>-52.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.059999999999999</v>
+        <v>4.939999999999993</v>
       </c>
       <c r="R18" t="n">
         <v>26.42</v>
@@ -9106,7 +9106,7 @@
         <v>15</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.3599999999999999</v>
+        <v>0.03000000000000063</v>
       </c>
       <c r="AA18" t="n">
         <v>2.05</v>
@@ -9124,7 +9124,7 @@
         <v>14.9</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.1599999999999999</v>
+        <v>1.19002030452009e-15</v>
       </c>
       <c r="AG18" t="n">
         <v>1.44</v>
@@ -9151,7 +9151,7 @@
         <v>-1.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.2700000000000002</v>
+        <v>5.828670879282072e-16</v>
       </c>
       <c r="AP18" t="n">
         <v>10.28</v>
@@ -9160,7 +9160,7 @@
         <v>17</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.0699999999999994</v>
+        <v>0.06999999999999851</v>
       </c>
       <c r="AS18" t="n">
         <v>5.55</v>
@@ -9178,7 +9178,7 @@
         <v>0.9</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.03000000000000025</v>
       </c>
       <c r="AY18" t="n">
         <v>5.81</v>
@@ -9187,7 +9187,7 @@
         <v>19.4</v>
       </c>
       <c r="BA18" t="n">
-        <v>2.21</v>
+        <v>1.449999999999998</v>
       </c>
       <c r="BB18" t="n">
         <v>2.34</v>
@@ -9214,7 +9214,7 @@
         <v>4.2</v>
       </c>
       <c r="BJ18" t="n">
-        <v>50.57999999999998</v>
+        <v>35.08000000000025</v>
       </c>
       <c r="BK18" t="n">
         <v>453.73</v>
@@ -9223,7 +9223,7 @@
         <v>26.1</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.01999999999999997</v>
       </c>
       <c r="BN18" t="n">
         <v>0.64</v>
@@ -9232,7 +9232,7 @@
         <v>0.9</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.4200000000000008</v>
+        <v>0.1800000000000097</v>
       </c>
       <c r="BQ18" t="n">
         <v>14.82</v>
@@ -9259,7 +9259,7 @@
         <v>1.7</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.4699999999999991</v>
+        <v>0.1700000000000023</v>
       </c>
       <c r="BZ18" t="n">
         <v>10.22</v>
@@ -9268,7 +9268,7 @@
         <v>10.8</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.3099999999999952</v>
       </c>
       <c r="CC18" t="n">
         <v>2.7</v>
@@ -9277,7 +9277,7 @@
         <v>-1.1</v>
       </c>
       <c r="CE18" t="n">
-        <v>13.31</v>
+        <v>2.959999999999982</v>
       </c>
       <c r="CF18" t="n">
         <v>113.19</v>
@@ -9304,7 +9304,7 @@
         <v>11.7</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.0100000000000003</v>
       </c>
       <c r="CO18" t="n">
         <v>2.04</v>
@@ -9313,7 +9313,7 @@
         <v>3.7</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.2500000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="CR18" t="n">
         <v>4.84</v>
@@ -9322,7 +9322,7 @@
         <v>11.7</v>
       </c>
       <c r="CT18" t="n">
-        <v>0.9499999999999993</v>
+        <v>0.04999999999999916</v>
       </c>
       <c r="CU18" t="n">
         <v>7.82</v>
@@ -9349,7 +9349,7 @@
         <v>13.4</v>
       </c>
       <c r="DC18" t="n">
-        <v>0.23</v>
+        <v>2.75474087985117e-15</v>
       </c>
       <c r="DD18" t="n">
         <v>3.62</v>
@@ -9367,7 +9367,7 @@
         <v>19.2</v>
       </c>
       <c r="DI18" t="n">
-        <v>0.6199999999999992</v>
+        <v>0.02999999999999936</v>
       </c>
       <c r="DJ18" t="n">
         <v>73.05</v>
@@ -9376,7 +9376,7 @@
         <v>14.2</v>
       </c>
       <c r="DL18" t="n">
-        <v>2.890000000000001</v>
+        <v>1.889999999999993</v>
       </c>
       <c r="DM18" t="n">
         <v>21.27</v>
@@ -9385,7 +9385,7 @@
         <v>14.7</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.1400000000000001</v>
+        <v>0.01999999999999999</v>
       </c>
       <c r="DP18" t="n">
         <v>2.57</v>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8499999999999996</v>
+        <v>0.05000000000000171</v>
       </c>
       <c r="C19" t="n">
         <v>7.1</v>
@@ -9539,7 +9539,7 @@
         <v>12.2</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1700000000000002</v>
+        <v>0.04999999999999978</v>
       </c>
       <c r="I19" t="n">
         <v>1.88</v>
@@ -9548,7 +9548,7 @@
         <v>12.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.2999999999999988</v>
       </c>
       <c r="L19" t="n">
         <v>4.78</v>
@@ -9557,7 +9557,7 @@
         <v>6.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03</v>
+        <v>3.469446951953614e-18</v>
       </c>
       <c r="O19" t="n">
         <v>0.02</v>
@@ -9566,7 +9566,7 @@
         <v>-52.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.530000000000001</v>
+        <v>0.06000000000000671</v>
       </c>
       <c r="R19" t="n">
         <v>34.88</v>
@@ -9575,7 +9575,7 @@
         <v>8.9</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3000000000000003</v>
+        <v>0.01999999999999902</v>
       </c>
       <c r="U19" t="n">
         <v>2.44</v>
@@ -9593,7 +9593,7 @@
         <v>14.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.08999999999999983</v>
       </c>
       <c r="AA19" t="n">
         <v>2.26</v>
@@ -9602,7 +9602,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.04999999999999982</v>
       </c>
       <c r="AD19" t="n">
         <v>5.44</v>
@@ -9611,7 +9611,7 @@
         <v>14.1</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.009999999999999221</v>
       </c>
       <c r="AG19" t="n">
         <v>1.65</v>
@@ -9620,7 +9620,7 @@
         <v>14.4</v>
       </c>
       <c r="AI19" t="n">
-        <v>13.59999999999999</v>
+        <v>3.920000000000012</v>
       </c>
       <c r="AJ19" t="n">
         <v>1143.95</v>
@@ -9629,7 +9629,7 @@
         <v>14.8</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.04000000000000031</v>
       </c>
       <c r="AM19" t="n">
         <v>1.23</v>
@@ -9638,7 +9638,7 @@
         <v>-5</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.1700000000000002</v>
+        <v>0.07999999999999977</v>
       </c>
       <c r="AP19" t="n">
         <v>11.67</v>
@@ -9647,7 +9647,7 @@
         <v>17.5</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.6799999999999997</v>
+        <v>0.4000000000000026</v>
       </c>
       <c r="AS19" t="n">
         <v>6.42</v>
@@ -9656,7 +9656,7 @@
         <v>8.4</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.1399999999999997</v>
+        <v>0.02999999999999961</v>
       </c>
       <c r="AV19" t="n">
         <v>2.27</v>
@@ -9665,7 +9665,7 @@
         <v>-6.9</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.0499999999999996</v>
       </c>
       <c r="AY19" t="n">
         <v>7.02</v>
@@ -9692,7 +9692,7 @@
         <v>-7.1</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.5700000000000021</v>
+        <v>0.2600000000000033</v>
       </c>
       <c r="BH19" t="n">
         <v>9.699999999999999</v>
@@ -9746,7 +9746,7 @@
         <v>-10.7</v>
       </c>
       <c r="BY19" t="n">
-        <v>0.4300000000000008</v>
+        <v>0.1100000000000002</v>
       </c>
       <c r="BZ19" t="n">
         <v>11.72</v>
@@ -9782,7 +9782,7 @@
         <v>0.4</v>
       </c>
       <c r="CK19" t="n">
-        <v>0.5300000000000031</v>
+        <v>0.2600000000000051</v>
       </c>
       <c r="CL19" t="n">
         <v>15.44</v>
@@ -9791,7 +9791,7 @@
         <v>13.3</v>
       </c>
       <c r="CN19" t="n">
-        <v>0.29</v>
+        <v>0.07999999999999949</v>
       </c>
       <c r="CO19" t="n">
         <v>2.39</v>
@@ -9809,7 +9809,7 @@
         <v>11.5</v>
       </c>
       <c r="CT19" t="n">
-        <v>0.3400000000000016</v>
+        <v>0.2400000000000033</v>
       </c>
       <c r="CU19" t="n">
         <v>8.949999999999999</v>
@@ -9827,7 +9827,7 @@
         <v>12.6</v>
       </c>
       <c r="CZ19" t="n">
-        <v>0.5499999999999998</v>
+        <v>0.1300000000000007</v>
       </c>
       <c r="DA19" t="n">
         <v>5.2</v>
@@ -9836,7 +9836,7 @@
         <v>12.4</v>
       </c>
       <c r="DC19" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.03999999999999584</v>
       </c>
       <c r="DD19" t="n">
         <v>4.24</v>
@@ -9845,7 +9845,7 @@
         <v>20</v>
       </c>
       <c r="DF19" t="n">
-        <v>1.17</v>
+        <v>0.1500000000000003</v>
       </c>
       <c r="DG19" t="n">
         <v>10.41</v>
@@ -9854,7 +9854,7 @@
         <v>17.7</v>
       </c>
       <c r="DI19" t="n">
-        <v>0.2000000000000011</v>
+        <v>0.1700000000000017</v>
       </c>
       <c r="DJ19" t="n">
         <v>84.08</v>
@@ -9863,7 +9863,7 @@
         <v>12</v>
       </c>
       <c r="DL19" t="n">
-        <v>2.389999999999997</v>
+        <v>0.2500000000000022</v>
       </c>
       <c r="DM19" t="n">
         <v>24.6</v>
@@ -9872,7 +9872,7 @@
         <v>14.7</v>
       </c>
       <c r="DO19" t="n">
-        <v>0.4300000000000002</v>
+        <v>0.009999999999999898</v>
       </c>
       <c r="DP19" t="n">
         <v>2.95</v>
@@ -10008,7 +10008,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2699999999999994</v>
+        <v>0.03999999999999901</v>
       </c>
       <c r="C20" t="n">
         <v>8.220000000000001</v>
@@ -10017,7 +10017,7 @@
         <v>16.1</v>
       </c>
       <c r="E20" t="n">
-        <v>8.670000000000002</v>
+        <v>3.350000000000038</v>
       </c>
       <c r="F20" t="n">
         <v>87.05</v>
@@ -10026,7 +10026,7 @@
         <v>14.7</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09999999999999959</v>
+        <v>0.0199999999999997</v>
       </c>
       <c r="I20" t="n">
         <v>2.17</v>
@@ -10035,7 +10035,7 @@
         <v>17.9</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.1000000000000006</v>
       </c>
       <c r="L20" t="n">
         <v>5.6</v>
@@ -10071,7 +10071,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.0699999999999972</v>
       </c>
       <c r="X20" t="n">
         <v>9.41</v>
@@ -10080,7 +10080,7 @@
         <v>19.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.29</v>
+        <v>0.1100000000000003</v>
       </c>
       <c r="AA20" t="n">
         <v>2.6</v>
@@ -10089,7 +10089,7 @@
         <v>-5.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.6400000000000006</v>
+        <v>0.370000000000001</v>
       </c>
       <c r="AD20" t="n">
         <v>6.18</v>
@@ -10098,7 +10098,7 @@
         <v>11.2</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.24</v>
+        <v>0.0399999999999998</v>
       </c>
       <c r="AG20" t="n">
         <v>1.94</v>
@@ -10107,7 +10107,7 @@
         <v>13.8</v>
       </c>
       <c r="AI20" t="n">
-        <v>124.6200000000001</v>
+        <v>94.42000000000007</v>
       </c>
       <c r="AJ20" t="n">
         <v>1307.43</v>
@@ -10116,7 +10116,7 @@
         <v>14.8</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.26</v>
+        <v>0.03999999999999897</v>
       </c>
       <c r="AM20" t="n">
         <v>1.44</v>
@@ -10125,7 +10125,7 @@
         <v>-9</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.2200000000000009</v>
+        <v>0.05000000000000068</v>
       </c>
       <c r="AP20" t="n">
         <v>13.28</v>
@@ -10143,7 +10143,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.2100000000000004</v>
+        <v>0.01000000000000148</v>
       </c>
       <c r="AV20" t="n">
         <v>2.5</v>
@@ -10152,7 +10152,7 @@
         <v>-2.4</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.9900000000000002</v>
+        <v>0.29</v>
       </c>
       <c r="AY20" t="n">
         <v>8.800000000000001</v>
@@ -10170,7 +10170,7 @@
         <v>6.1</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.2400000000000002</v>
+        <v>0.1000000000000006</v>
       </c>
       <c r="BE20" t="n">
         <v>3.72</v>
@@ -10179,7 +10179,7 @@
         <v>-0.7</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.4499999999999993</v>
+        <v>0.189999999999996</v>
       </c>
       <c r="BH20" t="n">
         <v>11.35</v>
@@ -10188,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="BJ20" t="n">
-        <v>51.92000000000007</v>
+        <v>15.20000000000001</v>
       </c>
       <c r="BK20" t="n">
         <v>584.12</v>
@@ -10197,7 +10197,7 @@
         <v>24.2</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.009999999999999898</v>
+        <v>0.009999999999999454</v>
       </c>
       <c r="BN20" t="n">
         <v>0.82</v>
@@ -10215,7 +10215,7 @@
         <v>25.5</v>
       </c>
       <c r="BS20" t="n">
-        <v>3.25</v>
+        <v>2.37000000000002</v>
       </c>
       <c r="BT20" t="n">
         <v>43.45</v>
@@ -10224,7 +10224,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BV20" t="n">
-        <v>0.8100000000000007</v>
+        <v>0.1700000000000001</v>
       </c>
       <c r="BW20" t="n">
         <v>8.25</v>
@@ -10233,7 +10233,7 @@
         <v>-4.1</v>
       </c>
       <c r="BY20" t="n">
-        <v>1.26</v>
+        <v>0.3999999999999984</v>
       </c>
       <c r="BZ20" t="n">
         <v>13.29</v>
@@ -10242,7 +10242,7 @@
         <v>2.8</v>
       </c>
       <c r="CB20" t="n">
-        <v>0.4800000000000004</v>
+        <v>1.595945597898663e-15</v>
       </c>
       <c r="CC20" t="n">
         <v>3.81</v>
@@ -10260,7 +10260,7 @@
         <v>0.4</v>
       </c>
       <c r="CH20" t="n">
-        <v>5.139999999999993</v>
+        <v>1.699999999999996</v>
       </c>
       <c r="CI20" t="n">
         <v>63.46</v>
@@ -10269,7 +10269,7 @@
         <v>2.1</v>
       </c>
       <c r="CK20" t="n">
-        <v>2.169999999999998</v>
+        <v>0.8599999999999799</v>
       </c>
       <c r="CL20" t="n">
         <v>17.88</v>
@@ -10287,7 +10287,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="CQ20" t="n">
-        <v>0.7199999999999998</v>
+        <v>0.1199999999999982</v>
       </c>
       <c r="CR20" t="n">
         <v>6.65</v>
@@ -10296,7 +10296,7 @@
         <v>14.2</v>
       </c>
       <c r="CT20" t="n">
-        <v>1.129999999999999</v>
+        <v>0.1099999999999942</v>
       </c>
       <c r="CU20" t="n">
         <v>10.35</v>
@@ -10305,7 +10305,7 @@
         <v>6.3</v>
       </c>
       <c r="CW20" t="n">
-        <v>2.32</v>
+        <v>1.480000000000016</v>
       </c>
       <c r="CX20" t="n">
         <v>23.31</v>
@@ -10323,7 +10323,7 @@
         <v>15</v>
       </c>
       <c r="DC20" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.01999999999999963</v>
       </c>
       <c r="DD20" t="n">
         <v>4.74</v>
@@ -10341,7 +10341,7 @@
         <v>18.7</v>
       </c>
       <c r="DI20" t="n">
-        <v>8.650000000000006</v>
+        <v>7.850000000000001</v>
       </c>
       <c r="DJ20" t="n">
         <v>95.68000000000001</v>
@@ -10359,7 +10359,7 @@
         <v>17</v>
       </c>
       <c r="DO20" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.009999999999999731</v>
       </c>
       <c r="DP20" t="n">
         <v>3.33</v>
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.030000000000001</v>
+        <v>0.1800000000000038</v>
       </c>
       <c r="C21" t="n">
         <v>9.300000000000001</v>
@@ -10504,7 +10504,7 @@
         <v>13.32</v>
       </c>
       <c r="E21" t="n">
-        <v>7.179999999999993</v>
+        <v>1.169999999999972</v>
       </c>
       <c r="F21" t="n">
         <v>98.43000000000001</v>
@@ -10513,7 +10513,7 @@
         <v>16.45</v>
       </c>
       <c r="H21" t="n">
-        <v>0.25</v>
+        <v>0.05000000000000082</v>
       </c>
       <c r="I21" t="n">
         <v>2.4</v>
@@ -10522,7 +10522,7 @@
         <v>13.85</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6900000000000004</v>
+        <v>0.08999999999999879</v>
       </c>
       <c r="L21" t="n">
         <v>6.64</v>
@@ -10531,7 +10531,7 @@
         <v>11.39</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="O21" t="n">
         <v>0.02</v>
@@ -10549,7 +10549,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3499999999999996</v>
+        <v>0.1500000000000005</v>
       </c>
       <c r="U21" t="n">
         <v>3.17</v>
@@ -10558,7 +10558,7 @@
         <v>6.03</v>
       </c>
       <c r="W21" t="n">
-        <v>1.040000000000001</v>
+        <v>0.6600000000000055</v>
       </c>
       <c r="X21" t="n">
         <v>10.51</v>
@@ -10567,7 +10567,7 @@
         <v>17.64</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.2200000000000003</v>
+        <v>0.02000000000000021</v>
       </c>
       <c r="AA21" t="n">
         <v>2.8</v>
@@ -10585,7 +10585,7 @@
         <v>13.71</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.0300000000000003</v>
       </c>
       <c r="AG21" t="n">
         <v>2.16</v>
@@ -10603,7 +10603,7 @@
         <v>15.57</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.02000000000000031</v>
       </c>
       <c r="AM21" t="n">
         <v>1.69</v>
@@ -10612,7 +10612,7 @@
         <v>-7.64</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.19</v>
+        <v>0.819999999999997</v>
       </c>
       <c r="AP21" t="n">
         <v>15.09</v>
@@ -10621,7 +10621,7 @@
         <v>17.7</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.1399999999999988</v>
+        <v>0.03999999999999737</v>
       </c>
       <c r="AS21" t="n">
         <v>8.02</v>
@@ -10648,7 +10648,7 @@
         <v>23.78</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.2199999999999998</v>
+        <v>0.02000000000000056</v>
       </c>
       <c r="BB21" t="n">
         <v>3.71</v>
@@ -10657,7 +10657,7 @@
         <v>4.27</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.2399999999999993</v>
+        <v>0.03999999999999811</v>
       </c>
       <c r="BE21" t="n">
         <v>3.81</v>
@@ -10666,7 +10666,7 @@
         <v>-4.54</v>
       </c>
       <c r="BG21" t="n">
-        <v>1.460000000000001</v>
+        <v>0.1800000000000107</v>
       </c>
       <c r="BH21" t="n">
         <v>12.7</v>
@@ -10684,7 +10684,7 @@
         <v>24.32</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.01000000000000001</v>
+        <v>1.127570259384925e-16</v>
       </c>
       <c r="BN21" t="n">
         <v>0.9399999999999999</v>
@@ -10720,7 +10720,7 @@
         <v>-2.04</v>
       </c>
       <c r="BY21" t="n">
-        <v>0.5</v>
+        <v>0.1000000000000016</v>
       </c>
       <c r="BZ21" t="n">
         <v>14.68</v>
@@ -10738,7 +10738,7 @@
         <v>4.29</v>
       </c>
       <c r="CE21" t="n">
-        <v>16.75999999999999</v>
+        <v>11.24000000000007</v>
       </c>
       <c r="CF21" t="n">
         <v>160.9</v>
@@ -10747,7 +10747,7 @@
         <v>1.07</v>
       </c>
       <c r="CH21" t="n">
-        <v>4.530000000000001</v>
+        <v>0.250000000000008</v>
       </c>
       <c r="CI21" t="n">
         <v>70.09999999999999</v>
@@ -10783,7 +10783,7 @@
         <v>14.34</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.2100000000000011</v>
+        <v>0.1000000000000069</v>
       </c>
       <c r="CU21" t="n">
         <v>11.55</v>
@@ -10801,7 +10801,7 @@
         <v>15.24</v>
       </c>
       <c r="CZ21" t="n">
-        <v>0.2099999999999991</v>
+        <v>0.009999999999996283</v>
       </c>
       <c r="DA21" t="n">
         <v>6.74</v>
@@ -10810,7 +10810,7 @@
         <v>16.63</v>
       </c>
       <c r="DC21" t="n">
-        <v>0.4299999999999997</v>
+        <v>0.1700000000000007</v>
       </c>
       <c r="DD21" t="n">
         <v>5.67</v>
@@ -10819,7 +10819,7 @@
         <v>19.72</v>
       </c>
       <c r="DF21" t="n">
-        <v>0.5499999999999992</v>
+        <v>0.0299999999999952</v>
       </c>
       <c r="DG21" t="n">
         <v>13.18</v>
@@ -10828,7 +10828,7 @@
         <v>16.43</v>
       </c>
       <c r="DI21" t="n">
-        <v>8.510000000000005</v>
+        <v>0.0600000000000005</v>
       </c>
       <c r="DJ21" t="n">
         <v>105.9</v>
@@ -10837,7 +10837,7 @@
         <v>11.43</v>
       </c>
       <c r="DL21" t="n">
-        <v>2.129999999999999</v>
+        <v>1.089999999999979</v>
       </c>
       <c r="DM21" t="n">
         <v>31.74</v>
@@ -10846,7 +10846,7 @@
         <v>19.87</v>
       </c>
       <c r="DO21" t="n">
-        <v>0.46</v>
+        <v>0.1400000000000008</v>
       </c>
       <c r="DP21" t="n">
         <v>3.89</v>
@@ -10982,7 +10982,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5599999999999992</v>
+        <v>0.06999999999999695</v>
       </c>
       <c r="C22" t="n">
         <v>10.52</v>
@@ -10991,7 +10991,7 @@
         <v>14.06</v>
       </c>
       <c r="E22" t="n">
-        <v>1.840000000000003</v>
+        <v>0.670000000000031</v>
       </c>
       <c r="F22" t="n">
         <v>114.23</v>
@@ -11000,7 +11000,7 @@
         <v>24.55</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1300000000000003</v>
+        <v>0.02999999999999867</v>
       </c>
       <c r="I22" t="n">
         <v>2.71</v>
@@ -11009,7 +11009,7 @@
         <v>14.84</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4999999999999996</v>
+        <v>0.02000000000000021</v>
       </c>
       <c r="L22" t="n">
         <v>7.54</v>
@@ -11018,7 +11018,7 @@
         <v>13.28</v>
       </c>
       <c r="N22" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="O22" t="n">
         <v>0.02</v>
@@ -11027,7 +11027,7 @@
         <v>-46.55</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.870000000000004</v>
+        <v>0.640000000000007</v>
       </c>
       <c r="R22" t="n">
         <v>49.91</v>
@@ -11036,7 +11036,7 @@
         <v>19.35</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3000000000000003</v>
+        <v>4.996003610813204e-16</v>
       </c>
       <c r="U22" t="n">
         <v>3.64</v>
@@ -11054,7 +11054,7 @@
         <v>17.05</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.07999999999999952</v>
       </c>
       <c r="AA22" t="n">
         <v>3.23</v>
@@ -11063,7 +11063,7 @@
         <v>-9.17</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.5299999999999998</v>
+        <v>0.4500000000000015</v>
       </c>
       <c r="AD22" t="n">
         <v>7.82</v>
@@ -11072,7 +11072,7 @@
         <v>13.97</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.07000000000000028</v>
+        <v>1.804112415015879e-16</v>
       </c>
       <c r="AG22" t="n">
         <v>2.38</v>
@@ -11081,7 +11081,7 @@
         <v>16.15</v>
       </c>
       <c r="AI22" t="n">
-        <v>21.95000000000019</v>
+        <v>2.870000000000996</v>
       </c>
       <c r="AJ22" t="n">
         <v>1614.88</v>
@@ -11090,7 +11090,7 @@
         <v>15.9</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.07000000000000009</v>
+        <v>0.04999999999999978</v>
       </c>
       <c r="AM22" t="n">
         <v>2.04</v>
@@ -11099,7 +11099,7 @@
         <v>3.01</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.8700000000000001</v>
+        <v>2.442490654175344e-15</v>
       </c>
       <c r="AP22" t="n">
         <v>16.52</v>
@@ -11108,7 +11108,7 @@
         <v>17.9</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.4400000000000008</v>
+        <v>0.1300000000000091</v>
       </c>
       <c r="AS22" t="n">
         <v>8.92</v>
@@ -11117,7 +11117,7 @@
         <v>8.74</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.3700000000000009</v>
       </c>
       <c r="AV22" t="n">
         <v>3.24</v>
@@ -11126,7 +11126,7 @@
         <v>-1.39</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.8499999999999996</v>
+        <v>0.1600000000000003</v>
       </c>
       <c r="AY22" t="n">
         <v>10.77</v>
@@ -11135,7 +11135,7 @@
         <v>18.62</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.4000000000000007</v>
+        <v>0.0100000000000009</v>
       </c>
       <c r="BB22" t="n">
         <v>4.14</v>
@@ -11144,7 +11144,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="BD22" t="n">
-        <v>0.4400000000000004</v>
+        <v>0.02000000000000426</v>
       </c>
       <c r="BE22" t="n">
         <v>4.13</v>
@@ -11162,7 +11162,7 @@
         <v>2.85</v>
       </c>
       <c r="BJ22" t="n">
-        <v>7.010000000000105</v>
+        <v>2.970000000000255</v>
       </c>
       <c r="BK22" t="n">
         <v>711.11</v>
@@ -11171,7 +11171,7 @@
         <v>23.02</v>
       </c>
       <c r="BM22" t="n">
-        <v>0.06000000000000014</v>
+        <v>0.0499999999999998</v>
       </c>
       <c r="BN22" t="n">
         <v>1.05</v>
@@ -11180,7 +11180,7 @@
         <v>12.44</v>
       </c>
       <c r="BP22" t="n">
-        <v>0.2800000000000011</v>
+        <v>0.1300000000000003</v>
       </c>
       <c r="BQ22" t="n">
         <v>24.13</v>
@@ -11198,7 +11198,7 @@
         <v>10.94</v>
       </c>
       <c r="BV22" t="n">
-        <v>0.730000000000002</v>
+        <v>0.4100000000000097</v>
       </c>
       <c r="BW22" t="n">
         <v>10.73</v>
@@ -11207,7 +11207,7 @@
         <v>-1.85</v>
       </c>
       <c r="BY22" t="n">
-        <v>0.9399999999999988</v>
+        <v>0.3399999999999972</v>
       </c>
       <c r="BZ22" t="n">
         <v>16.49</v>
@@ -11216,7 +11216,7 @@
         <v>3.39</v>
       </c>
       <c r="CB22" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.05000000000000247</v>
       </c>
       <c r="CC22" t="n">
         <v>4.84</v>
@@ -11234,7 +11234,7 @@
         <v>0.85</v>
       </c>
       <c r="CH22" t="n">
-        <v>0.4500000000000028</v>
+        <v>0.1999999999999948</v>
       </c>
       <c r="CI22" t="n">
         <v>76.81999999999999</v>
@@ -11243,7 +11243,7 @@
         <v>6.92</v>
       </c>
       <c r="CK22" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.2199999999999953</v>
       </c>
       <c r="CL22" t="n">
         <v>22.85</v>
@@ -11252,7 +11252,7 @@
         <v>10.75</v>
       </c>
       <c r="CN22" t="n">
-        <v>0.09999999999999959</v>
+        <v>0.09999999999999759</v>
       </c>
       <c r="CO22" t="n">
         <v>3.62</v>
@@ -11261,7 +11261,7 @@
         <v>11.76</v>
       </c>
       <c r="CQ22" t="n">
-        <v>0.71</v>
+        <v>0.2699999999999987</v>
       </c>
       <c r="CR22" t="n">
         <v>8.31</v>
@@ -11279,7 +11279,7 @@
         <v>7.34</v>
       </c>
       <c r="CW22" t="n">
-        <v>1.549999999999994</v>
+        <v>0.3899999999999815</v>
       </c>
       <c r="CX22" t="n">
         <v>29.98</v>
@@ -11288,7 +11288,7 @@
         <v>15.63</v>
       </c>
       <c r="CZ22" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.160000000000008</v>
       </c>
       <c r="DA22" t="n">
         <v>7.42</v>
@@ -11297,7 +11297,7 @@
         <v>12.55</v>
       </c>
       <c r="DC22" t="n">
-        <v>0.4900000000000002</v>
+        <v>0.0600000000000005</v>
       </c>
       <c r="DD22" t="n">
         <v>6.62</v>
@@ -11306,7 +11306,7 @@
         <v>28.07</v>
       </c>
       <c r="DF22" t="n">
-        <v>0.5</v>
+        <v>0.08000000000000179</v>
       </c>
       <c r="DG22" t="n">
         <v>15.07</v>
@@ -11315,7 +11315,7 @@
         <v>14.47</v>
       </c>
       <c r="DI22" t="n">
-        <v>2.189999999999985</v>
+        <v>2.069999999999983</v>
       </c>
       <c r="DJ22" t="n">
         <v>115.14</v>
@@ -11324,7 +11324,7 @@
         <v>11.21</v>
       </c>
       <c r="DL22" t="n">
-        <v>1.98</v>
+        <v>0.1100000000000061</v>
       </c>
       <c r="DM22" t="n">
         <v>34.77</v>
@@ -11333,7 +11333,7 @@
         <v>21.53</v>
       </c>
       <c r="DO22" t="n">
-        <v>3.37</v>
+        <v>2.44</v>
       </c>
       <c r="DP22" t="n">
         <v>4.29</v>
